--- a/AzentioAutomationFramework_UBSExcel/Test-data/KUBSTestData.xlsx
+++ b/AzentioAutomationFramework_UBSExcel/Test-data/KUBSTestData.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="1401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4454" uniqueCount="1536">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -4243,6 +4243,411 @@
   </si>
   <si>
     <t>2527</t>
+  </si>
+  <si>
+    <t>TABLE_CHAIRS_42676</t>
+  </si>
+  <si>
+    <t>2528</t>
+  </si>
+  <si>
+    <t>FIXTURESANDFITTINGS1-TABLESANDCHAIRS01-TABLE_CHAIRS_42676</t>
+  </si>
+  <si>
+    <t>8625</t>
+  </si>
+  <si>
+    <t>2227</t>
+  </si>
+  <si>
+    <t>ITEM1962221391</t>
+  </si>
+  <si>
+    <t>5088</t>
+  </si>
+  <si>
+    <t>FIXTURESANDFITTINGS1-TABLESANDCHAIRS01-TABLE_CHAIRS_42676_AZENTMAIN_2001</t>
+  </si>
+  <si>
+    <t>114074</t>
+  </si>
+  <si>
+    <t>ITEM1512191215</t>
+  </si>
+  <si>
+    <t>5090</t>
+  </si>
+  <si>
+    <t>5091</t>
+  </si>
+  <si>
+    <t>114077</t>
+  </si>
+  <si>
+    <t>ITEM1872121224</t>
+  </si>
+  <si>
+    <t>5093</t>
+  </si>
+  <si>
+    <t>5094</t>
+  </si>
+  <si>
+    <t>5095</t>
+  </si>
+  <si>
+    <t>114081</t>
+  </si>
+  <si>
+    <t>ITEM1612861415</t>
+  </si>
+  <si>
+    <t>5097</t>
+  </si>
+  <si>
+    <t>5098</t>
+  </si>
+  <si>
+    <t>114084</t>
+  </si>
+  <si>
+    <t>ITEM1822281138</t>
+  </si>
+  <si>
+    <t>5100</t>
+  </si>
+  <si>
+    <t>5101</t>
+  </si>
+  <si>
+    <t>114087</t>
+  </si>
+  <si>
+    <t>ITEM1512341283</t>
+  </si>
+  <si>
+    <t>5103</t>
+  </si>
+  <si>
+    <t>NITM107241</t>
+  </si>
+  <si>
+    <t>114089</t>
+  </si>
+  <si>
+    <t>114090</t>
+  </si>
+  <si>
+    <t>ITEM1842071272</t>
+  </si>
+  <si>
+    <t>5106</t>
+  </si>
+  <si>
+    <t>5107</t>
+  </si>
+  <si>
+    <t>114093</t>
+  </si>
+  <si>
+    <t>ITEM1362921479</t>
+  </si>
+  <si>
+    <t>5109</t>
+  </si>
+  <si>
+    <t>114095</t>
+  </si>
+  <si>
+    <t>114096</t>
+  </si>
+  <si>
+    <t>ITEM1262221033</t>
+  </si>
+  <si>
+    <t>5112</t>
+  </si>
+  <si>
+    <t>5113</t>
+  </si>
+  <si>
+    <t>114107</t>
+  </si>
+  <si>
+    <t>TABLE_CHAIRS_36981</t>
+  </si>
+  <si>
+    <t>2547</t>
+  </si>
+  <si>
+    <t>FIXTURESANDFITTINGS1-TABLESANDCHAIRS01-TABLE_CHAIRS_36981</t>
+  </si>
+  <si>
+    <t>8685</t>
+  </si>
+  <si>
+    <t>2247</t>
+  </si>
+  <si>
+    <t>ITEM1482891117</t>
+  </si>
+  <si>
+    <t>5128</t>
+  </si>
+  <si>
+    <t>FIXTURESANDFITTINGS1-TABLESANDCHAIRS01-TABLE_CHAIRS_36981_AZENTMAIN_6001</t>
+  </si>
+  <si>
+    <t>5129</t>
+  </si>
+  <si>
+    <t>ITEM1032441445</t>
+  </si>
+  <si>
+    <t>5130</t>
+  </si>
+  <si>
+    <t>5131</t>
+  </si>
+  <si>
+    <t>5132</t>
+  </si>
+  <si>
+    <t>5133</t>
+  </si>
+  <si>
+    <t>ITEM1832431177</t>
+  </si>
+  <si>
+    <t>5134</t>
+  </si>
+  <si>
+    <t>5135</t>
+  </si>
+  <si>
+    <t>5136</t>
+  </si>
+  <si>
+    <t>ITEM1392971348</t>
+  </si>
+  <si>
+    <t>5137</t>
+  </si>
+  <si>
+    <t>114123</t>
+  </si>
+  <si>
+    <t>ITEM1032181133</t>
+  </si>
+  <si>
+    <t>5139</t>
+  </si>
+  <si>
+    <t>5140</t>
+  </si>
+  <si>
+    <t>5141</t>
+  </si>
+  <si>
+    <t>ITEM1272511249</t>
+  </si>
+  <si>
+    <t>5142</t>
+  </si>
+  <si>
+    <t>114128</t>
+  </si>
+  <si>
+    <t>5144</t>
+  </si>
+  <si>
+    <t>ITEM1642801022</t>
+  </si>
+  <si>
+    <t>5145</t>
+  </si>
+  <si>
+    <t>5146</t>
+  </si>
+  <si>
+    <t>5147</t>
+  </si>
+  <si>
+    <t>ITEM1712521451</t>
+  </si>
+  <si>
+    <t>5148</t>
+  </si>
+  <si>
+    <t>NITM181281</t>
+  </si>
+  <si>
+    <t>114134</t>
+  </si>
+  <si>
+    <t>5150</t>
+  </si>
+  <si>
+    <t>ITEM1142111389</t>
+  </si>
+  <si>
+    <t>5151</t>
+  </si>
+  <si>
+    <t>5152</t>
+  </si>
+  <si>
+    <t>5153</t>
+  </si>
+  <si>
+    <t>Table_Chairs491111</t>
+  </si>
+  <si>
+    <t>2567</t>
+  </si>
+  <si>
+    <t>01-001-Table_Chairs491111</t>
+  </si>
+  <si>
+    <t>8723</t>
+  </si>
+  <si>
+    <t>5168</t>
+  </si>
+  <si>
+    <t>5169</t>
+  </si>
+  <si>
+    <t>ITEM1892241448</t>
+  </si>
+  <si>
+    <t>5170</t>
+  </si>
+  <si>
+    <t>ITEM1932351487</t>
+  </si>
+  <si>
+    <t>5171</t>
+  </si>
+  <si>
+    <t>01-001-Table_Chairs491111_AZENTMAIN_1003</t>
+  </si>
+  <si>
+    <t>114155</t>
+  </si>
+  <si>
+    <t>ITEM1552961255</t>
+  </si>
+  <si>
+    <t>5173</t>
+  </si>
+  <si>
+    <t>114157</t>
+  </si>
+  <si>
+    <t>ITEM1812351489</t>
+  </si>
+  <si>
+    <t>5174</t>
+  </si>
+  <si>
+    <t>NITM165232</t>
+  </si>
+  <si>
+    <t>114159</t>
+  </si>
+  <si>
+    <t>Table_Chairs599</t>
+  </si>
+  <si>
+    <t>2568</t>
+  </si>
+  <si>
+    <t>01-001-Table_Chairs599</t>
+  </si>
+  <si>
+    <t>8731</t>
+  </si>
+  <si>
+    <t>2268</t>
+  </si>
+  <si>
+    <t>5176</t>
+  </si>
+  <si>
+    <t>5177</t>
+  </si>
+  <si>
+    <t>ITEM1522101452</t>
+  </si>
+  <si>
+    <t>5178</t>
+  </si>
+  <si>
+    <t>ITEM1632211451</t>
+  </si>
+  <si>
+    <t>5179</t>
+  </si>
+  <si>
+    <t>Table_Chairs512152</t>
+  </si>
+  <si>
+    <t>2569</t>
+  </si>
+  <si>
+    <t>01-001-Table_Chairs512152</t>
+  </si>
+  <si>
+    <t>8739</t>
+  </si>
+  <si>
+    <t>2269</t>
+  </si>
+  <si>
+    <t>5180</t>
+  </si>
+  <si>
+    <t>5181</t>
+  </si>
+  <si>
+    <t>ITEM1832261463</t>
+  </si>
+  <si>
+    <t>5182</t>
+  </si>
+  <si>
+    <t>ITEM1722091058</t>
+  </si>
+  <si>
+    <t>5183</t>
+  </si>
+  <si>
+    <t>01-001-Table_Chairs512152_AZENTMAIN_1003</t>
+  </si>
+  <si>
+    <t>114164</t>
+  </si>
+  <si>
+    <t>ITEM1522901263</t>
+  </si>
+  <si>
+    <t>5185</t>
+  </si>
+  <si>
+    <t>114166</t>
+  </si>
+  <si>
+    <t>ITEM1502091056</t>
+  </si>
+  <si>
+    <t>5186</t>
+  </si>
+  <si>
+    <t>NITM147202</t>
+  </si>
+  <si>
+    <t>114168</t>
   </si>
 </sst>
 </file>
@@ -5646,7 +6051,7 @@
     <col min="2" max="2" customWidth="true" style="10" width="61.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="12.5390625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="11.7578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="64.50390625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="63.38671875" collapsed="true"/>
     <col min="6" max="7" customWidth="true" style="10" width="50.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="10" width="56.714285714285715" collapsed="true"/>
     <col min="9" max="9" customWidth="true" style="10" width="96.85714285714286" collapsed="true"/>
@@ -5694,13 +6099,13 @@
         <v>296</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1084</v>
+        <v>1519</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>1083</v>
+        <v>1518</v>
       </c>
       <c r="F2" s="15">
         <v>1001</v>
@@ -5726,13 +6131,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>227</v>
+        <v>1404</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>228</v>
+        <v>1403</v>
       </c>
       <c r="F3" s="15">
         <v>2001</v>
@@ -5854,13 +6259,13 @@
         <v>309</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1346</v>
+        <v>1447</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1345</v>
+        <v>1446</v>
       </c>
       <c r="F7" s="15">
         <v>6001</v>
@@ -6035,7 +6440,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="12.5390625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="11.7578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="10" width="62.714285714285715" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="64.50390625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="63.38671875" collapsed="true"/>
     <col min="7" max="8" customWidth="true" style="10" width="67.0" collapsed="true"/>
     <col min="9" max="10" customWidth="true" style="10" width="58.857142857142854" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="10" width="117.57142857142857" collapsed="true"/>
@@ -6128,7 +6533,7 @@
         <v>328</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>329</v>
+        <v>1521</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>56</v>
@@ -6137,7 +6542,7 @@
         <v>129</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>1083</v>
+        <v>1518</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>330</v>
@@ -6180,7 +6585,7 @@
         <v>338</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>339</v>
+        <v>1533</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
@@ -6189,7 +6594,7 @@
         <v>129</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>1083</v>
+        <v>1518</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>340</v>
@@ -6203,7 +6608,7 @@
         <v>341</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>342</v>
+        <v>1532</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>343</v>
@@ -6244,7 +6649,7 @@
         <v>345</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>346</v>
+        <v>1441</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
@@ -6253,7 +6658,7 @@
         <v>129</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>228</v>
+        <v>1403</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>340</v>
@@ -6267,7 +6672,7 @@
         <v>341</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>347</v>
+        <v>1440</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>343</v>
@@ -6500,7 +6905,7 @@
         <v>361</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1381</v>
+        <v>1483</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>56</v>
@@ -6509,7 +6914,7 @@
         <v>129</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>1345</v>
+        <v>1446</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>340</v>
@@ -6523,7 +6928,7 @@
         <v>341</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>1380</v>
+        <v>1482</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>343</v>
@@ -6628,7 +7033,7 @@
         <v>368</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1086</v>
+        <v>1522</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>56</v>
@@ -6637,7 +7042,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>1083</v>
+        <v>1518</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>340</v>
@@ -6833,7 +7238,7 @@
     <col min="2" max="2" customWidth="true" style="10" width="68.85714285714286" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="12.5390625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="11.7578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="82.15234375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="81.03515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="17.35546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="10" width="68.85714285714286" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="10" width="57.57142857142857" collapsed="true"/>
@@ -6893,16 +7298,16 @@
         <v>378</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>379</v>
+        <v>1528</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>380</v>
+        <v>1527</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>381</v>
+        <v>1525</v>
       </c>
       <c r="G2" s="15">
         <v>100000000</v>
@@ -6934,16 +7339,16 @@
         <v>388</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>389</v>
+        <v>1531</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>380</v>
+        <v>1527</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>390</v>
+        <v>1529</v>
       </c>
       <c r="G3" s="15">
         <v>10000</v>
@@ -6975,16 +7380,16 @@
         <v>392</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>393</v>
+        <v>1438</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>395</v>
+        <v>1436</v>
       </c>
       <c r="G4" s="15">
         <v>10000</v>
@@ -7016,16 +7421,16 @@
         <v>396</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1369</v>
+        <v>1471</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>1367</v>
+        <v>1469</v>
       </c>
       <c r="G5" s="15">
         <v>10000</v>
@@ -7308,7 +7713,7 @@
     <col min="2" max="2" customWidth="true" style="10" width="64.28571428571429" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="12.5390625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="11.7578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="82.15234375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="81.03515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="17.35546875" collapsed="true"/>
     <col min="7" max="8" customWidth="true" style="10" width="59.0" collapsed="true"/>
     <col min="9" max="9" customWidth="true" style="10" width="93.14285714285714" collapsed="true"/>
@@ -7492,16 +7897,16 @@
         <v>430</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>431</v>
+        <v>1416</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>432</v>
+        <v>1414</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>382</v>
@@ -7562,16 +7967,16 @@
         <v>437</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1354</v>
+        <v>1455</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>1352</v>
+        <v>1453</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>382</v>
@@ -7877,7 +8282,7 @@
     <col min="2" max="2" customWidth="true" style="10" width="68.85714285714286" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="12.5390625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="11.7578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="82.15234375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="81.03515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="17.35546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="10" width="59.42857142857143" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="10" width="107.0" collapsed="true"/>
@@ -7958,16 +8363,16 @@
         <v>468</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>469</v>
+        <v>1417</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>432</v>
+        <v>1414</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>464</v>
@@ -8022,16 +8427,16 @@
         <v>472</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1355</v>
+        <v>1456</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>1352</v>
+        <v>1453</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>464</v>
@@ -8277,7 +8682,7 @@
     <col min="2" max="2" customWidth="true" style="10" width="65.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="12.5390625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="11.7578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="82.15234375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="81.03515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="17.35546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="10" width="56.714285714285715" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="10" width="110.85714285714286" collapsed="true"/>
@@ -8464,10 +8869,10 @@
         <v>56</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1108</v>
+        <v>1527</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>1123</v>
+        <v>1534</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>491</v>
@@ -8557,16 +8962,16 @@
         <v>516</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>517</v>
+        <v>1434</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>518</v>
+        <v>1432</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>491</v>
@@ -8590,16 +8995,16 @@
         <v>519</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1373</v>
+        <v>1475</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>1371</v>
+        <v>1473</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>491</v>
@@ -8812,7 +9217,7 @@
     <col min="2" max="2" customWidth="true" style="10" width="80.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="12.5390625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="11.7578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="82.15234375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="81.03515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="17.35546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="10" width="32.42857142857143" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="10" width="105.57142857142857" collapsed="true"/>
@@ -8861,16 +9266,16 @@
         <v>531</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>532</v>
+        <v>1409</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>347</v>
+        <v>1440</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>533</v>
@@ -8893,16 +9298,16 @@
         <v>538</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>539</v>
+        <v>1413</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>540</v>
+        <v>1410</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>533</v>
@@ -8925,16 +9330,16 @@
         <v>542</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>543</v>
+        <v>1418</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>432</v>
+        <v>1414</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>533</v>
@@ -8957,16 +9362,16 @@
         <v>545</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>546</v>
+        <v>1422</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>547</v>
+        <v>1419</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>533</v>
@@ -8989,16 +9394,16 @@
         <v>549</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>550</v>
+        <v>1426</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>551</v>
+        <v>1423</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>533</v>
@@ -9021,16 +9426,16 @@
         <v>553</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>554</v>
+        <v>1431</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>555</v>
+        <v>1427</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>533</v>
@@ -9053,16 +9458,16 @@
         <v>557</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>558</v>
+        <v>1435</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>518</v>
+        <v>1432</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>533</v>
@@ -9085,16 +9490,16 @@
         <v>560</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>561</v>
+        <v>1439</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>395</v>
+        <v>1436</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>533</v>
@@ -9117,16 +9522,16 @@
         <v>563</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>564</v>
+        <v>1443</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>1380</v>
+        <v>1482</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>533</v>
@@ -9181,16 +9586,16 @@
         <v>567</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1362</v>
+        <v>1464</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>1360</v>
+        <v>1462</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>533</v>
@@ -9436,7 +9841,7 @@
     <col min="2" max="2" customWidth="true" style="10" width="60.285714285714285" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="12.5390625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="11.7578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="82.15234375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="81.03515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="17.35546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="39.71875" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="10" width="39.285714285714285" collapsed="true"/>
@@ -9756,16 +10161,16 @@
         <v>615</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>616</v>
+        <v>1425</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>551</v>
+        <v>1423</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>593</v>
@@ -9909,16 +10314,16 @@
         <v>621</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1365</v>
+        <v>1467</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>1363</v>
+        <v>1465</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>593</v>
@@ -10199,7 +10604,7 @@
     <col min="2" max="2" customWidth="true" style="10" width="68.85714285714286" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="12.5390625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="11.7578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="82.15234375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="81.03515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="17.35546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="32.8828125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="10" width="37.42857142857143" collapsed="true"/>
@@ -10260,16 +10665,16 @@
         <v>637</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1351</v>
+        <v>1460</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>1357</v>
+        <v>1458</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>640</v>
@@ -10298,16 +10703,16 @@
         <v>646</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>647</v>
+        <v>1421</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>547</v>
+        <v>1419</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>640</v>
@@ -10641,16 +11046,16 @@
         <v>665</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1356</v>
+        <v>1457</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>1352</v>
+        <v>1453</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>640</v>
@@ -10679,16 +11084,16 @@
         <v>668</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1385</v>
+        <v>1461</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>1357</v>
+        <v>1458</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>670</v>
@@ -10719,10 +11124,10 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>1360</v>
+        <v>1462</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="15" t="s">
@@ -10749,16 +11154,16 @@
         <v>675</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1366</v>
+        <v>1468</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>1363</v>
+        <v>1465</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>640</v>
@@ -10787,16 +11192,16 @@
         <v>678</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1383</v>
+        <v>1485</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>1380</v>
+        <v>1482</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>640</v>
@@ -10825,16 +11230,16 @@
         <v>681</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1370</v>
+        <v>1472</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>1367</v>
+        <v>1469</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>640</v>
@@ -10863,16 +11268,16 @@
         <v>684</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1374</v>
+        <v>1476</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>1371</v>
+        <v>1473</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>640</v>
@@ -10901,16 +11306,16 @@
         <v>687</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1379</v>
+        <v>1481</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>1377</v>
+        <v>1479</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>640</v>
@@ -10951,7 +11356,7 @@
     <col min="2" max="2" customWidth="true" style="10" width="60.285714285714285" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="12.5390625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="11.7578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="82.15234375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="81.03515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="17.35546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="10" width="36.0" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="24.3828125" collapsed="true"/>
@@ -11012,22 +11417,22 @@
         <v>694</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>695</v>
+        <v>1535</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>380</v>
+        <v>1527</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>696</v>
+        <v>1532</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>697</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>698</v>
+        <v>1534</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>699</v>
@@ -11053,22 +11458,22 @@
         <v>704</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>705</v>
+        <v>1430</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>555</v>
+        <v>1427</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>697</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>706</v>
+        <v>1429</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>699</v>
@@ -11135,22 +11540,22 @@
         <v>710</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1378</v>
+        <v>1480</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>1375</v>
+        <v>1477</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>697</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>1377</v>
+        <v>1479</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>699</v>
@@ -11584,7 +11989,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="12.875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="12.875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="12.875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="82.15234375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="81.03515625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="17.35546875" collapsed="true"/>
     <col min="9" max="9" customWidth="true" style="10" width="41.42857142857143" collapsed="true"/>
     <col min="10" max="10" customWidth="true" style="10" width="61.857142857142854" collapsed="true"/>
@@ -11966,7 +12371,7 @@
         <v>771</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>772</v>
+        <v>1442</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>37</v>
@@ -11974,10 +12379,10 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>394</v>
+        <v>1408</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>347</v>
+        <v>1440</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>773</v>
@@ -12009,22 +12414,22 @@
         <v>774</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1382</v>
+        <v>1484</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>1350</v>
+        <v>1451</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>1380</v>
+        <v>1482</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>776</v>
@@ -34176,7 +34581,7 @@
         <v>162</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1082</v>
+        <v>1517</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>56</v>
@@ -34191,7 +34596,7 @@
         <v>165</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>1081</v>
+        <v>1516</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>167</v>
@@ -34217,7 +34622,7 @@
         <v>172</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>56</v>
@@ -34232,7 +34637,7 @@
         <v>176</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>178</v>
@@ -34381,7 +34786,7 @@
         <v>197</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1344</v>
+        <v>1445</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>56</v>
@@ -34396,7 +34801,7 @@
         <v>176</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>1343</v>
+        <v>1444</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>188</v>
@@ -34632,7 +35037,7 @@
     <col min="2" max="2" customWidth="true" style="10" width="59.42857142857143" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="12.5390625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="11.7578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="64.50390625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="63.38671875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="10" width="55.857142857142854" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="10" width="50.714285714285715" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="10" width="26.285714285714285" collapsed="true"/>
@@ -34700,13 +35105,13 @@
         <v>215</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1084</v>
+        <v>1519</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>1083</v>
+        <v>1518</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>218</v>
@@ -34747,13 +35152,13 @@
         <v>226</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>227</v>
+        <v>1404</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>228</v>
+        <v>1403</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>229</v>
@@ -34935,13 +35340,13 @@
         <v>243</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1346</v>
+        <v>1447</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1345</v>
+        <v>1446</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>218</v>
@@ -35222,7 +35627,7 @@
     <col min="2" max="2" customWidth="true" style="10" width="71.14285714285714" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="12.5390625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="11.7578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="64.50390625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="63.38671875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="10" width="80.71428571428571" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="10" width="78.57142857142857" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="10" width="81.42857142857143" collapsed="true"/>
@@ -35303,13 +35708,13 @@
         <v>263</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1085</v>
+        <v>1520</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>1083</v>
+        <v>1518</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>265</v>
@@ -35359,13 +35764,13 @@
         <v>270</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>271</v>
+        <v>1405</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>228</v>
+        <v>1403</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>272</v>
@@ -35583,13 +35988,13 @@
         <v>282</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1347</v>
+        <v>1448</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1345</v>
+        <v>1446</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>284</v>

--- a/AzentioAutomationFramework_UBSExcel/Test-data/KUBSTestData.xlsx
+++ b/AzentioAutomationFramework_UBSExcel/Test-data/KUBSTestData.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4454" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4779" uniqueCount="1652">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -4648,6 +4648,354 @@
   </si>
   <si>
     <t>114168</t>
+  </si>
+  <si>
+    <t>Laptop_72012</t>
+  </si>
+  <si>
+    <t>2587</t>
+  </si>
+  <si>
+    <t>ELECTRONICS-LAP001-Laptop_72012</t>
+  </si>
+  <si>
+    <t>8747</t>
+  </si>
+  <si>
+    <t>2270</t>
+  </si>
+  <si>
+    <t>ITEM1672591302</t>
+  </si>
+  <si>
+    <t>5188</t>
+  </si>
+  <si>
+    <t>ELECTRONICS-LAP001-Laptop_72012_AZENTMAIN_7001</t>
+  </si>
+  <si>
+    <t>ITEM1612911471</t>
+  </si>
+  <si>
+    <t>5189</t>
+  </si>
+  <si>
+    <t>ITEM1802041246</t>
+  </si>
+  <si>
+    <t>5190</t>
+  </si>
+  <si>
+    <t>5191</t>
+  </si>
+  <si>
+    <t>114175</t>
+  </si>
+  <si>
+    <t>5193</t>
+  </si>
+  <si>
+    <t>5194</t>
+  </si>
+  <si>
+    <t>5195</t>
+  </si>
+  <si>
+    <t>Laptop_649173</t>
+  </si>
+  <si>
+    <t>2588</t>
+  </si>
+  <si>
+    <t>ELECTRONICS-LAP001-Laptop_649173</t>
+  </si>
+  <si>
+    <t>8756</t>
+  </si>
+  <si>
+    <t>2271</t>
+  </si>
+  <si>
+    <t>ITEM1232041046</t>
+  </si>
+  <si>
+    <t>5196</t>
+  </si>
+  <si>
+    <t>ELECTRONICS-LAP001-Laptop_649173_AZENTMAIN_7001</t>
+  </si>
+  <si>
+    <t>ITEM1902341151</t>
+  </si>
+  <si>
+    <t>5197</t>
+  </si>
+  <si>
+    <t>ITEM1132401482</t>
+  </si>
+  <si>
+    <t>5198</t>
+  </si>
+  <si>
+    <t>5199</t>
+  </si>
+  <si>
+    <t>114189</t>
+  </si>
+  <si>
+    <t>5201</t>
+  </si>
+  <si>
+    <t>5202</t>
+  </si>
+  <si>
+    <t>5203</t>
+  </si>
+  <si>
+    <t>Tamil33510002492</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>1829</t>
+  </si>
+  <si>
+    <t>Laptop_32128</t>
+  </si>
+  <si>
+    <t>2607</t>
+  </si>
+  <si>
+    <t>ELECTRONICS-LAP001-Laptop_32128</t>
+  </si>
+  <si>
+    <t>8789</t>
+  </si>
+  <si>
+    <t>ITEM1202921083</t>
+  </si>
+  <si>
+    <t>5208</t>
+  </si>
+  <si>
+    <t>ELECTRONICS-LAP001-Laptop_32128_AZENTMAIN_3001</t>
+  </si>
+  <si>
+    <t>5209</t>
+  </si>
+  <si>
+    <t>ITEM1172331134</t>
+  </si>
+  <si>
+    <t>5210</t>
+  </si>
+  <si>
+    <t>5211</t>
+  </si>
+  <si>
+    <t>5212</t>
+  </si>
+  <si>
+    <t>ITEM1822201329</t>
+  </si>
+  <si>
+    <t>5213</t>
+  </si>
+  <si>
+    <t>5214</t>
+  </si>
+  <si>
+    <t>5215</t>
+  </si>
+  <si>
+    <t>ITEM1382901097</t>
+  </si>
+  <si>
+    <t>5216</t>
+  </si>
+  <si>
+    <t>114222</t>
+  </si>
+  <si>
+    <t>ITEM1832061128</t>
+  </si>
+  <si>
+    <t>5218</t>
+  </si>
+  <si>
+    <t>NITM131237</t>
+  </si>
+  <si>
+    <t>114224</t>
+  </si>
+  <si>
+    <t>5220</t>
+  </si>
+  <si>
+    <t>ITEM1392131237</t>
+  </si>
+  <si>
+    <t>5221</t>
+  </si>
+  <si>
+    <t>5222</t>
+  </si>
+  <si>
+    <t>5223</t>
+  </si>
+  <si>
+    <t>5224</t>
+  </si>
+  <si>
+    <t>ITEM1242821202</t>
+  </si>
+  <si>
+    <t>5225</t>
+  </si>
+  <si>
+    <t>5226</t>
+  </si>
+  <si>
+    <t>5227</t>
+  </si>
+  <si>
+    <t>TABLE_CHAIRS_83656</t>
+  </si>
+  <si>
+    <t>2627</t>
+  </si>
+  <si>
+    <t>FIXTURESANDFITTINGS1-TABLESANDCHAIRS01-TABLE_CHAIRS_83656</t>
+  </si>
+  <si>
+    <t>8928</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>ITEM1652361484</t>
+  </si>
+  <si>
+    <t>5228</t>
+  </si>
+  <si>
+    <t>FIXTURESANDFITTINGS1-TABLESANDCHAIRS01-TABLE_CHAIRS_83656_AZENTMAIN_2001</t>
+  </si>
+  <si>
+    <t>5229</t>
+  </si>
+  <si>
+    <t>114255</t>
+  </si>
+  <si>
+    <t>ITEM1812341276</t>
+  </si>
+  <si>
+    <t>5231</t>
+  </si>
+  <si>
+    <t>5232</t>
+  </si>
+  <si>
+    <t>5233</t>
+  </si>
+  <si>
+    <t>114259</t>
+  </si>
+  <si>
+    <t>ITEM1342891200</t>
+  </si>
+  <si>
+    <t>5235</t>
+  </si>
+  <si>
+    <t>5236</t>
+  </si>
+  <si>
+    <t>114262</t>
+  </si>
+  <si>
+    <t>ITEM1632091336</t>
+  </si>
+  <si>
+    <t>5238</t>
+  </si>
+  <si>
+    <t>5239</t>
+  </si>
+  <si>
+    <t>114265</t>
+  </si>
+  <si>
+    <t>ITEM1252251263</t>
+  </si>
+  <si>
+    <t>5241</t>
+  </si>
+  <si>
+    <t>NITM132249</t>
+  </si>
+  <si>
+    <t>114267</t>
+  </si>
+  <si>
+    <t>114268</t>
+  </si>
+  <si>
+    <t>ITEM1912621231</t>
+  </si>
+  <si>
+    <t>5244</t>
+  </si>
+  <si>
+    <t>5245</t>
+  </si>
+  <si>
+    <t>114271</t>
+  </si>
+  <si>
+    <t>ITEM1242731121</t>
+  </si>
+  <si>
+    <t>5247</t>
+  </si>
+  <si>
+    <t>114273</t>
+  </si>
+  <si>
+    <t>114274</t>
+  </si>
+  <si>
+    <t>ITEM1632781467</t>
+  </si>
+  <si>
+    <t>5250</t>
+  </si>
+  <si>
+    <t>5251</t>
+  </si>
+  <si>
+    <t>114284</t>
+  </si>
+  <si>
+    <t>Tamil45513762964</t>
+  </si>
+  <si>
+    <t>State Bank of India Karnataka Bangalore</t>
+  </si>
+  <si>
+    <t>Tamil61810512565</t>
+  </si>
+  <si>
+    <t>Tamil14010432282</t>
+  </si>
+  <si>
+    <t>Tamil90513332362</t>
+  </si>
+  <si>
+    <t>753</t>
   </si>
 </sst>
 </file>
@@ -6131,13 +6479,13 @@
         <v>303</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1404</v>
+        <v>1609</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>1403</v>
+        <v>1608</v>
       </c>
       <c r="F3" s="15">
         <v>2001</v>
@@ -6163,13 +6511,13 @@
         <v>304</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1104</v>
+        <v>1576</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1103</v>
+        <v>1575</v>
       </c>
       <c r="F4" s="15">
         <v>3001</v>
@@ -6291,13 +6639,13 @@
         <v>310</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>247</v>
+        <v>1556</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>248</v>
+        <v>1555</v>
       </c>
       <c r="F8" s="15">
         <v>7001</v>
@@ -6542,7 +6890,7 @@
         <v>129</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>1518</v>
+        <v>1608</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>330</v>
@@ -6594,7 +6942,7 @@
         <v>129</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>1518</v>
+        <v>1608</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>340</v>
@@ -6649,7 +6997,7 @@
         <v>345</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1441</v>
+        <v>1643</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
@@ -6658,7 +7006,7 @@
         <v>129</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>1403</v>
+        <v>1608</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>340</v>
@@ -6672,7 +7020,7 @@
         <v>341</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>1440</v>
+        <v>1642</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>343</v>
@@ -6713,7 +7061,7 @@
         <v>349</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1132</v>
+        <v>1603</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>56</v>
@@ -6722,7 +7070,7 @@
         <v>129</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>1103</v>
+        <v>1575</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>340</v>
@@ -6736,7 +7084,7 @@
         <v>341</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>1131</v>
+        <v>1602</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>343</v>
@@ -6969,7 +7317,7 @@
         <v>365</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>366</v>
+        <v>1564</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>56</v>
@@ -6978,7 +7326,7 @@
         <v>129</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>248</v>
+        <v>1555</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>340</v>
@@ -6992,7 +7340,7 @@
         <v>341</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>367</v>
+        <v>1563</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>343</v>
@@ -7042,7 +7390,7 @@
         <v>129</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>1518</v>
+        <v>1608</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>340</v>
@@ -7380,16 +7728,16 @@
         <v>392</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1438</v>
+        <v>1640</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>1436</v>
+        <v>1638</v>
       </c>
       <c r="G4" s="15">
         <v>10000</v>
@@ -7897,16 +8245,16 @@
         <v>430</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1416</v>
+        <v>1618</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>1414</v>
+        <v>1616</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>382</v>
@@ -7932,16 +8280,16 @@
         <v>433</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1128</v>
+        <v>1599</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1108</v>
+        <v>1579</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>1126</v>
+        <v>1597</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>382</v>
@@ -8363,16 +8711,16 @@
         <v>468</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1417</v>
+        <v>1619</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>1414</v>
+        <v>1616</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>464</v>
@@ -8395,16 +8743,16 @@
         <v>470</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1129</v>
+        <v>1600</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1108</v>
+        <v>1579</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>1126</v>
+        <v>1597</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>464</v>
@@ -8735,16 +9083,16 @@
         <v>488</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1109</v>
+        <v>1580</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>1108</v>
+        <v>1579</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>1106</v>
+        <v>1577</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>491</v>
@@ -8768,16 +9116,16 @@
         <v>496</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1113</v>
+        <v>1584</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>1108</v>
+        <v>1579</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>1110</v>
+        <v>1581</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>491</v>
@@ -8801,16 +9149,16 @@
         <v>500</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1117</v>
+        <v>1588</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1108</v>
+        <v>1579</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>1114</v>
+        <v>1585</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>491</v>
@@ -8836,10 +9184,10 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>1108</v>
+        <v>1579</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>1118</v>
+        <v>1589</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>491</v>
@@ -8863,16 +9211,16 @@
         <v>507</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1125</v>
+        <v>1596</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1527</v>
+        <v>1579</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>1534</v>
+        <v>1594</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>491</v>
@@ -8896,16 +9244,16 @@
         <v>511</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1130</v>
+        <v>1601</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1108</v>
+        <v>1579</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>1126</v>
+        <v>1597</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>491</v>
@@ -8929,16 +9277,16 @@
         <v>514</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1134</v>
+        <v>1605</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>1108</v>
+        <v>1579</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>1131</v>
+        <v>1602</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>491</v>
@@ -8962,16 +9310,16 @@
         <v>516</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1434</v>
+        <v>1636</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>1432</v>
+        <v>1634</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>491</v>
@@ -9272,10 +9620,10 @@
         <v>56</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>1440</v>
+        <v>1642</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>533</v>
@@ -9298,16 +9646,16 @@
         <v>538</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1413</v>
+        <v>1615</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>1410</v>
+        <v>1611</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>533</v>
@@ -9330,16 +9678,16 @@
         <v>542</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1418</v>
+        <v>1620</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>1414</v>
+        <v>1616</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>533</v>
@@ -9362,16 +9710,16 @@
         <v>545</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1422</v>
+        <v>1624</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>1419</v>
+        <v>1621</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>533</v>
@@ -9394,16 +9742,16 @@
         <v>549</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1426</v>
+        <v>1628</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>1423</v>
+        <v>1625</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>533</v>
@@ -9426,16 +9774,16 @@
         <v>553</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1431</v>
+        <v>1633</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>1427</v>
+        <v>1629</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>533</v>
@@ -9458,16 +9806,16 @@
         <v>557</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1435</v>
+        <v>1637</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>1432</v>
+        <v>1634</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>533</v>
@@ -9490,16 +9838,16 @@
         <v>560</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1439</v>
+        <v>1641</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>1436</v>
+        <v>1638</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>533</v>
@@ -9522,16 +9870,16 @@
         <v>563</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1443</v>
+        <v>1645</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>1451</v>
+        <v>1613</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>1482</v>
+        <v>1642</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>533</v>
@@ -9554,16 +9902,16 @@
         <v>565</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1120</v>
+        <v>1591</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>1108</v>
+        <v>1579</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>1118</v>
+        <v>1589</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>533</v>
@@ -9618,16 +9966,16 @@
         <v>570</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>571</v>
+        <v>1566</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>572</v>
+        <v>1560</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>573</v>
+        <v>1561</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>533</v>
@@ -10161,16 +10509,16 @@
         <v>615</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1425</v>
+        <v>1627</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>1423</v>
+        <v>1625</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>593</v>
@@ -10212,16 +10560,16 @@
         <v>617</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1116</v>
+        <v>1587</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>1108</v>
+        <v>1579</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>1114</v>
+        <v>1585</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>593</v>
@@ -10703,16 +11051,16 @@
         <v>646</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1421</v>
+        <v>1623</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>1419</v>
+        <v>1621</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>640</v>
@@ -10741,16 +11089,16 @@
         <v>648</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1112</v>
+        <v>1583</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1108</v>
+        <v>1579</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>1110</v>
+        <v>1581</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>640</v>
@@ -10967,16 +11315,16 @@
         <v>658</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>659</v>
+        <v>1568</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>572</v>
+        <v>1560</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>367</v>
+        <v>1563</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>640</v>
@@ -11198,10 +11546,10 @@
         <v>56</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>1451</v>
+        <v>1560</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>1482</v>
+        <v>1563</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>640</v>
@@ -11458,22 +11806,22 @@
         <v>704</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1430</v>
+        <v>1632</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>1427</v>
+        <v>1629</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>697</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>1429</v>
+        <v>1631</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>699</v>
@@ -11499,22 +11847,22 @@
         <v>707</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1124</v>
+        <v>1595</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1108</v>
+        <v>1579</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>1121</v>
+        <v>1592</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>697</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>1123</v>
+        <v>1594</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>699</v>
@@ -12054,22 +12402,22 @@
         <v>734</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>735</v>
+        <v>1548</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>572</v>
+        <v>1543</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>736</v>
+        <v>1541</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>737</v>
@@ -12101,22 +12449,22 @@
         <v>745</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>746</v>
+        <v>1550</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>572</v>
+        <v>1543</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>573</v>
+        <v>1544</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>747</v>
@@ -12148,22 +12496,22 @@
         <v>749</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>750</v>
+        <v>1552</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>572</v>
+        <v>1543</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>367</v>
+        <v>1546</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>751</v>
@@ -12230,22 +12578,22 @@
         <v>756</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>757</v>
+        <v>1565</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>758</v>
+        <v>1560</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>759</v>
+        <v>1558</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>760</v>
@@ -12277,22 +12625,22 @@
         <v>762</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>763</v>
+        <v>1567</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>758</v>
+        <v>1560</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>764</v>
+        <v>1561</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>765</v>
@@ -12324,22 +12672,22 @@
         <v>767</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>768</v>
+        <v>1569</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>758</v>
+        <v>1560</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>769</v>
+        <v>1563</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>770</v>
@@ -12371,7 +12719,7 @@
         <v>771</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1442</v>
+        <v>1644</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>37</v>
@@ -12379,10 +12727,10 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>1408</v>
+        <v>1613</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>1440</v>
+        <v>1642</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>773</v>
@@ -12613,22 +12961,22 @@
         <v>785</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1133</v>
+        <v>1604</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>1108</v>
+        <v>1579</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>1131</v>
+        <v>1602</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>765</v>
@@ -13214,14 +13562,15 @@
     <col min="7" max="8" customWidth="true" style="3" width="32.42857142857143" collapsed="true"/>
     <col min="9" max="9" customWidth="true" style="3" width="50.0" collapsed="true"/>
     <col min="10" max="10" customWidth="true" style="3" width="32.42857142857143" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="3" width="15.64453125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="3" width="18.1953125" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="3" width="32.42857142857143" collapsed="true"/>
     <col min="13" max="13" customWidth="true" style="3" width="43.0" collapsed="true"/>
     <col min="14" max="14" customWidth="true" style="3" width="32.42857142857143" collapsed="true"/>
     <col min="15" max="15" customWidth="true" style="3" width="18.857142857142858" collapsed="true"/>
     <col min="16" max="23" customWidth="true" style="3" width="32.42857142857143" collapsed="true"/>
     <col min="24" max="24" customWidth="true" style="3" width="57.0" collapsed="true"/>
-    <col min="25" max="26" customWidth="true" style="3" width="52.57142857142857" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="3" width="27.109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="52.57142857142857" collapsed="true"/>
     <col min="27" max="27" customWidth="true" style="3" width="51.0" collapsed="true"/>
     <col min="28" max="28" customWidth="true" style="3" width="45.0" collapsed="true"/>
     <col min="29" max="31" customWidth="true" style="3" width="32.42857142857143" collapsed="true"/>
@@ -13402,7 +13751,7 @@
         <v>877</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>1393</v>
+        <v>1651</v>
       </c>
       <c r="E2" s="56" t="s">
         <v>56</v>
@@ -13423,7 +13772,7 @@
         <v>882</v>
       </c>
       <c r="K2" s="56" t="s">
-        <v>1392</v>
+        <v>1650</v>
       </c>
       <c r="L2" s="57" t="s">
         <v>884</v>
@@ -13465,7 +13814,7 @@
         <v>895</v>
       </c>
       <c r="Y2" s="57" t="s">
-        <v>896</v>
+        <v>1647</v>
       </c>
       <c r="Z2" s="57" t="s">
         <v>897</v>
@@ -31684,7 +32033,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="66" width="12.7734375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="66" width="12.08984375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="66" width="34.285714285714285" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="66" width="8.90234375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="66" width="9.27734375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="66" width="18.285714285714285" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="66" width="12.76953125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" style="66" width="15.857142857142858" collapsed="true"/>
@@ -31779,7 +32128,7 @@
         <v>930</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>1392</v>
+        <v>1570</v>
       </c>
       <c r="G2" s="68" t="s">
         <v>920</v>
@@ -32109,7 +32458,7 @@
         <v>974</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>1394</v>
+        <v>1572</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>56</v>
@@ -32118,7 +32467,7 @@
         <v>976</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>1392</v>
+        <v>1570</v>
       </c>
       <c r="G2" s="68" t="s">
         <v>977</v>
@@ -34622,7 +34971,7 @@
         <v>172</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>1402</v>
+        <v>1607</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>56</v>
@@ -34637,7 +34986,7 @@
         <v>176</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>1401</v>
+        <v>1606</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>178</v>
@@ -34663,7 +35012,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1102</v>
+        <v>1574</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
@@ -34678,7 +35027,7 @@
         <v>183</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>1101</v>
+        <v>1573</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>185</v>
@@ -34827,7 +35176,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>201</v>
+        <v>1554</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>56</v>
@@ -34842,7 +35191,7 @@
         <v>183</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>202</v>
+        <v>1553</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>188</v>
@@ -35152,13 +35501,13 @@
         <v>226</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1404</v>
+        <v>1609</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>1403</v>
+        <v>1608</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>229</v>
@@ -35199,13 +35548,13 @@
         <v>233</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1104</v>
+        <v>1576</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1103</v>
+        <v>1575</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>229</v>
@@ -35387,13 +35736,13 @@
         <v>246</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>247</v>
+        <v>1556</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>248</v>
+        <v>1555</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>229</v>
@@ -35764,13 +36113,13 @@
         <v>270</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1405</v>
+        <v>1610</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>1403</v>
+        <v>1608</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>272</v>
@@ -35820,13 +36169,13 @@
         <v>273</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1105</v>
+        <v>173</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1103</v>
+        <v>1575</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>275</v>
@@ -36044,13 +36393,13 @@
         <v>285</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>286</v>
+        <v>1557</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>248</v>
+        <v>1555</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>287</v>

--- a/AzentioAutomationFramework_UBSExcel/Test-data/KUBSTestData.xlsx
+++ b/AzentioAutomationFramework_UBSExcel/Test-data/KUBSTestData.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4779" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4797" uniqueCount="1660">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -4996,6 +4996,30 @@
   </si>
   <si>
     <t>753</t>
+  </si>
+  <si>
+    <t>Tamil49817002619</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>Azentio_Soft-Agency-75-PO-1</t>
+  </si>
+  <si>
+    <t>1777</t>
+  </si>
+  <si>
+    <t>BOI</t>
+  </si>
+  <si>
+    <t>2147</t>
   </si>
 </sst>
 </file>
@@ -13751,7 +13775,7 @@
         <v>877</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="E2" s="56" t="s">
         <v>56</v>
@@ -13772,7 +13796,7 @@
         <v>882</v>
       </c>
       <c r="K2" s="56" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="L2" s="57" t="s">
         <v>884</v>
@@ -32119,7 +32143,7 @@
         <v>928</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>1395</v>
+        <v>1655</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>56</v>
@@ -32305,7 +32329,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="66" width="12.7734375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="66" width="12.08984375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="66" width="29.857142857142858" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="66" width="9.98828125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="66" width="18.1953125" collapsed="true"/>
     <col min="7" max="10" customWidth="true" style="66" width="25.857142857142858" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="66" width="31.428571428571427" collapsed="true"/>
     <col min="12" max="13" customWidth="true" style="66" width="25.857142857142858" collapsed="true"/>
@@ -32458,7 +32482,7 @@
         <v>974</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>1572</v>
+        <v>1654</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>56</v>
@@ -32467,7 +32491,7 @@
         <v>976</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>1570</v>
+        <v>1652</v>
       </c>
       <c r="G2" s="68" t="s">
         <v>977</v>
@@ -32827,7 +32851,7 @@
       <c r="C2" s="67"/>
       <c r="D2" s="77"/>
       <c r="E2" s="79" t="s">
-        <v>1392</v>
+        <v>1570</v>
       </c>
       <c r="F2" s="79" t="s">
         <v>1003</v>
@@ -32845,7 +32869,7 @@
         <v>1006</v>
       </c>
       <c r="K2" s="82" t="s">
-        <v>1396</v>
+        <v>1656</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>910</v>
@@ -32862,7 +32886,7 @@
         <v>1009</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>1397</v>
+        <v>1657</v>
       </c>
       <c r="D3" s="77" t="s">
         <v>56</v>
@@ -33144,7 +33168,7 @@
         <v>1047</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>1294</v>
+        <v>1659</v>
       </c>
       <c r="D2" s="77" t="s">
         <v>56</v>
@@ -33159,7 +33183,7 @@
         <v>1050</v>
       </c>
       <c r="H2" s="80" t="s">
-        <v>1392</v>
+        <v>1570</v>
       </c>
       <c r="I2" s="80" t="s">
         <v>934</v>
@@ -33209,7 +33233,7 @@
         <v>1055</v>
       </c>
       <c r="Z2" s="83" t="s">
-        <v>1396</v>
+        <v>1656</v>
       </c>
       <c r="AA2" s="79"/>
       <c r="AB2" s="79">
@@ -33255,7 +33279,7 @@
         <v>1049</v>
       </c>
       <c r="AR2" s="14" t="s">
-        <v>1398</v>
+        <v>1658</v>
       </c>
       <c r="AS2" s="91" t="s">
         <v>910</v>

--- a/AzentioAutomationFramework_UBSExcel/Test-data/KUBSTestData.xlsx
+++ b/AzentioAutomationFramework_UBSExcel/Test-data/KUBSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="LimitConfigCataTestData" sheetId="1" r:id="rId3"/>
@@ -39,13 +39,12 @@
     <sheet name="AssetImpairement_ExecutionTrack" sheetId="30" r:id="rId32"/>
     <sheet name="AssetRevaluation_ExecutionTrack" sheetId="31" r:id="rId33"/>
   </sheets>
-  <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4654" uniqueCount="1403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4661" uniqueCount="1405">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -674,6 +673,9 @@
     <t>TABLE_CHAIRS_36981</t>
   </si>
   <si>
+    <t>KUBS_FAT_UAT_002_003_D6</t>
+  </si>
+  <si>
     <t>KUBS_FAT_UAT_002_002_D7</t>
   </si>
   <si>
@@ -806,15 +808,15 @@
     <t>WDV</t>
   </si>
   <si>
-    <t>KUBS_FAT_UAT_002_003_D6</t>
-  </si>
-  <si>
     <t>8685</t>
   </si>
   <si>
     <t>FIXTURESANDFITTINGS1-TABLESANDCHAIRS01-TABLE_CHAIRS_36981</t>
   </si>
   <si>
+    <t>KUBS_FAT_UAT_002_004_D6</t>
+  </si>
+  <si>
     <t>9517</t>
   </si>
   <si>
@@ -923,15 +925,15 @@
     <t>Financial Inventories</t>
   </si>
   <si>
-    <t>KUBS_FAT_UAT_002_004_D6</t>
-  </si>
-  <si>
     <t>2247</t>
   </si>
   <si>
     <t>Computers &amp; Laptop</t>
   </si>
   <si>
+    <t>KUBS_FAT_UAT_002_005_D6</t>
+  </si>
+  <si>
     <t>2347</t>
   </si>
   <si>
@@ -992,7 +994,7 @@
     <t>KUBS_FAT_UAT_002_005_D5</t>
   </si>
   <si>
-    <t>KUBS_FAT_UAT_002_005_D6</t>
+    <t>KUBS_FAT_UAT_002_007_D6</t>
   </si>
   <si>
     <t>KUBS_FAT_UAT_002_007_D7</t>
@@ -1178,9 +1180,6 @@
     <t>998371- Marketing</t>
   </si>
   <si>
-    <t>KUBS_FAT_UAT_002_007_D6</t>
-  </si>
-  <si>
     <t>5151</t>
   </si>
   <si>
@@ -4254,6 +4253,12 @@
   </si>
   <si>
     <t>KUBS_FAT_UAT_013_019</t>
+  </si>
+  <si>
+    <t>TABLE_CHAIRS_39651</t>
+  </si>
+  <si>
+    <t>2695</t>
   </si>
 </sst>
 </file>
@@ -4827,6 +4832,10 @@
       <alignment/>
       <protection/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
@@ -4852,10 +4861,6 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
@@ -5586,7 +5591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f35bcbfe-1512-4cac-afc4-609f3d16fdd3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a209bfba-d8e1-43e6-8e04-bd8e561271b4}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -5595,12 +5600,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="93.14285714285714" style="4" customWidth="1"/>
-    <col min="2" max="2" width="99" style="4" customWidth="1"/>
-    <col min="3" max="4" width="36.857142857142854" style="4" customWidth="1"/>
-    <col min="5" max="10" width="66.71428571428571" style="4" customWidth="1"/>
-    <col min="11" max="17" width="66.71428571428571" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="37.142857142857146" style="9"/>
+    <col min="1" max="1" customWidth="true" style="4" width="93.14285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="99.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="4" width="36.857142857142854" collapsed="true"/>
+    <col min="5" max="10" customWidth="true" style="4" width="66.71428571428571" collapsed="true"/>
+    <col min="11" max="17" customWidth="true" style="9" width="66.71428571428571" collapsed="true"/>
+    <col min="18" max="16384" style="9" width="37.142857142857146" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.05">
@@ -5723,27 +5728,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835dff03-6252-4426-b9af-83a290490e45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b999f253-a4b5-4659-be3c-860a26c6a3f5}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="J1">
-      <selection pane="topLeft" activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="J1">
+      <selection pane="topLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="79.28571428571429" style="12" customWidth="1"/>
-    <col min="2" max="2" width="77.85714285714286" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.571428571428571" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.857142857142858" style="12" customWidth="1"/>
-    <col min="5" max="5" width="74.85714285714286" style="12" customWidth="1"/>
-    <col min="6" max="7" width="63.714285714285715" style="12" customWidth="1"/>
-    <col min="8" max="8" width="72.14285714285714" style="12" customWidth="1"/>
-    <col min="9" max="9" width="123.85714285714286" style="12" customWidth="1"/>
-    <col min="10" max="10" width="133" style="12" customWidth="1"/>
-    <col min="11" max="11" width="37.285714285714285" style="12" customWidth="1"/>
-    <col min="12" max="18" width="25" style="12" customWidth="1"/>
-    <col min="19" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="79.28571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="77.85714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="14.571428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="13.857142857142858" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="74.85714285714286" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="12" width="63.714285714285715" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="72.14285714285714" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="12" width="123.85714285714286" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="133.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="37.285714285714285" collapsed="true"/>
+    <col min="12" max="18" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="19" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.05">
@@ -5760,10 +5765,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>49</v>
@@ -5804,34 +5809,34 @@
     </row>
     <row r="2" spans="1:18" ht="14.05">
       <c r="A2" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F2" s="8">
         <v>1001</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
@@ -5844,37 +5849,37 @@
     </row>
     <row r="3" spans="1:18" ht="14.05">
       <c r="A3" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3" s="8">
         <v>2001</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
@@ -5886,34 +5891,34 @@
     </row>
     <row r="4" spans="1:18" ht="14.05">
       <c r="A4" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F4" s="8">
         <v>3001</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
@@ -5926,34 +5931,34 @@
     </row>
     <row r="5" spans="1:18" ht="14.05">
       <c r="A5" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F5" s="8">
         <v>4001</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
@@ -5966,34 +5971,34 @@
     </row>
     <row r="6" spans="1:18" ht="14.05">
       <c r="A6" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F6" s="8">
         <v>5001</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
@@ -6006,10 +6011,10 @@
     </row>
     <row r="7" spans="1:18" ht="14.05">
       <c r="A7" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>254</v>
@@ -6024,18 +6029,20 @@
         <v>6001</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="K7" s="31"/>
+        <v>311</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>316</v>
+      </c>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
@@ -6046,37 +6053,37 @@
     </row>
     <row r="8" spans="1:18" ht="14.05">
       <c r="A8" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F8" s="8">
         <v>7001</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
@@ -6088,10 +6095,10 @@
     </row>
     <row r="9" spans="1:18" ht="14.05">
       <c r="A9" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6100,16 +6107,16 @@
         <v>8001</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
@@ -6122,10 +6129,10 @@
     </row>
     <row r="10" spans="1:18" ht="14.05">
       <c r="A10" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6134,16 +6141,16 @@
         <v>9001</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
@@ -6156,10 +6163,10 @@
     </row>
     <row r="11" spans="1:18" ht="14.05">
       <c r="A11" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6168,16 +6175,16 @@
         <v>10001</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
@@ -6190,10 +6197,10 @@
     </row>
     <row r="12" spans="1:18" ht="14.05">
       <c r="A12" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -6202,16 +6209,16 @@
         <v>11001</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
@@ -6229,7 +6236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cd8b5bdb-9b15-41ff-b793-e28033870bf9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5d80dc46-2f11-4b0f-be24-191fa66cde23}">
   <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="Y1">
@@ -6238,35 +6245,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="81.85714285714286" style="12" customWidth="1"/>
-    <col min="2" max="2" width="72.14285714285714" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.571428571428571" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.857142857142858" style="12" customWidth="1"/>
-    <col min="5" max="5" width="80.14285714285714" style="12" customWidth="1"/>
-    <col min="6" max="6" width="74.85714285714286" style="12" customWidth="1"/>
-    <col min="7" max="8" width="85.57142857142857" style="12" customWidth="1"/>
-    <col min="9" max="10" width="75" style="12" customWidth="1"/>
-    <col min="11" max="11" width="150.42857142857142" style="12" customWidth="1"/>
-    <col min="12" max="12" width="23.857142857142858" style="12" customWidth="1"/>
-    <col min="13" max="13" width="78.85714285714286" style="12" customWidth="1"/>
-    <col min="14" max="14" width="50.142857142857146" style="12" customWidth="1"/>
-    <col min="15" max="15" width="68.85714285714286" style="33" customWidth="1"/>
-    <col min="16" max="16" width="53.57142857142857" style="12" customWidth="1"/>
-    <col min="17" max="17" width="47.285714285714285" style="12" customWidth="1"/>
-    <col min="18" max="19" width="61.142857142857146" style="12" customWidth="1"/>
-    <col min="20" max="20" width="68.28571428571429" style="12" customWidth="1"/>
-    <col min="21" max="21" width="121.14285714285714" style="12" customWidth="1"/>
-    <col min="22" max="22" width="120.57142857142857" style="12" customWidth="1"/>
-    <col min="23" max="23" width="35.285714285714285" style="12" customWidth="1"/>
-    <col min="24" max="24" width="40.285714285714285" style="12" customWidth="1"/>
-    <col min="25" max="25" width="38" style="12" customWidth="1"/>
-    <col min="26" max="26" width="38.857142857142854" style="12" customWidth="1"/>
-    <col min="27" max="27" width="33.57142857142857" style="12" customWidth="1"/>
-    <col min="28" max="28" width="39.142857142857146" style="12" customWidth="1"/>
-    <col min="29" max="29" width="35" style="12" customWidth="1"/>
-    <col min="30" max="30" width="33.42857142857143" style="12" customWidth="1"/>
-    <col min="31" max="33" width="25" style="12" customWidth="1"/>
-    <col min="34" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="81.85714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="72.14285714285714" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="14.571428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="13.857142857142858" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="80.14285714285714" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="74.85714285714286" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="12" width="85.57142857142857" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="12" width="75.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="150.42857142857142" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="12" width="23.857142857142858" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="12" width="78.85714285714286" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="12" width="50.142857142857146" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="34" width="68.85714285714286" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="12" width="53.57142857142857" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="12" width="47.285714285714285" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" style="12" width="61.142857142857146" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="12" width="68.28571428571429" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="12" width="121.14285714285714" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="12" width="120.57142857142857" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="12" width="35.285714285714285" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="12" width="40.285714285714285" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="12" width="38.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="12" width="38.857142857142854" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="12" width="33.57142857142857" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="12" width="39.142857142857146" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="12" width="35.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="12" width="33.42857142857143" collapsed="true"/>
+    <col min="31" max="33" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="34" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="14.05">
@@ -6283,46 +6290,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S1" s="17" t="s">
         <v>49</v>
@@ -6361,24 +6368,24 @@
         <v>168</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.05">
       <c r="A2" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>26</v>
@@ -6387,39 +6394,39 @@
         <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="5"/>
       <c r="M2" s="8"/>
       <c r="N2" s="18"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="34" t="s">
-        <v>340</v>
+      <c r="P2" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W2" s="31"/>
       <c r="X2" s="31"/>
@@ -6435,13 +6442,13 @@
     </row>
     <row r="3" spans="1:33" ht="14.05">
       <c r="A3" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>26</v>
@@ -6450,51 +6457,51 @@
         <v>129</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O3" s="8">
         <v>30</v>
       </c>
-      <c r="P3" s="34" t="s">
-        <v>340</v>
+      <c r="P3" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R3" s="8">
         <v>1000000</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V3" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W3" s="31"/>
       <c r="X3" s="31"/>
@@ -6510,13 +6517,13 @@
     </row>
     <row r="4" spans="1:33" ht="14.05">
       <c r="A4" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>56</v>
@@ -6525,75 +6532,75 @@
         <v>129</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O4" s="8">
         <v>30</v>
       </c>
-      <c r="P4" s="34" t="s">
-        <v>340</v>
+      <c r="P4" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R4" s="8">
         <v>1000000</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V4" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W4" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y4" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z4" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA4" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="AB4" s="36" t="s">
+      <c r="AA4" s="37" t="s">
         <v>362</v>
       </c>
+      <c r="AB4" s="37" t="s">
+        <v>363</v>
+      </c>
       <c r="AC4" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD4" s="31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE4" s="31"/>
       <c r="AF4" s="31"/>
@@ -6601,13 +6608,13 @@
     </row>
     <row r="5" spans="1:33" ht="14.05">
       <c r="A5" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>56</v>
@@ -6616,51 +6623,51 @@
         <v>129</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O5" s="8">
         <v>30</v>
       </c>
-      <c r="P5" s="34" t="s">
-        <v>340</v>
+      <c r="P5" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R5" s="8">
         <v>1000000</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V5" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W5" s="31"/>
       <c r="X5" s="31"/>
@@ -6676,13 +6683,13 @@
     </row>
     <row r="6" spans="1:33" ht="14.05">
       <c r="A6" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>56</v>
@@ -6691,51 +6698,51 @@
         <v>129</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O6" s="8">
         <v>30</v>
       </c>
-      <c r="P6" s="34" t="s">
-        <v>340</v>
+      <c r="P6" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R6" s="8">
         <v>1000000</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V6" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W6" s="31"/>
       <c r="X6" s="31"/>
@@ -6751,13 +6758,13 @@
     </row>
     <row r="7" spans="1:33" ht="14.05">
       <c r="A7" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>26</v>
@@ -6766,51 +6773,51 @@
         <v>129</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O7" s="8">
         <v>30</v>
       </c>
-      <c r="P7" s="34" t="s">
-        <v>340</v>
+      <c r="P7" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R7" s="8">
         <v>1000000</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V7" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W7" s="31"/>
       <c r="X7" s="31"/>
@@ -6826,10 +6833,10 @@
     </row>
     <row r="8" spans="1:33" ht="14.05">
       <c r="A8" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>378</v>
@@ -6844,21 +6851,21 @@
         <v>255</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>379</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N8" s="18" t="s">
         <v>380</v>
@@ -6866,26 +6873,26 @@
       <c r="O8" s="8">
         <v>30</v>
       </c>
-      <c r="P8" s="34" t="s">
-        <v>340</v>
+      <c r="P8" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R8" s="8">
         <v>1000000</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V8" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W8" s="31" t="s">
         <v>381</v>
@@ -6896,7 +6903,7 @@
       <c r="Y8" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="Z8" s="36" t="s">
         <v>384</v>
       </c>
       <c r="AA8" s="29" t="s">
@@ -6917,10 +6924,10 @@
     </row>
     <row r="9" spans="1:33" ht="14.05">
       <c r="A9" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>388</v>
@@ -6932,51 +6939,51 @@
         <v>129</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>389</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O9" s="8">
         <v>30</v>
       </c>
-      <c r="P9" s="34" t="s">
-        <v>340</v>
+      <c r="P9" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R9" s="8">
         <v>1000000</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V9" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W9" s="31" t="s">
         <v>390</v>
@@ -7000,7 +7007,7 @@
     </row>
     <row r="10" spans="1:33" ht="14.05">
       <c r="A10" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>394</v>
@@ -7015,53 +7022,53 @@
         <v>129</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="H10" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="H10" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="33" t="s">
         <v>397</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O10" s="8">
         <v>30</v>
       </c>
-      <c r="P10" s="34" t="s">
-        <v>340</v>
+      <c r="P10" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R10" s="8">
         <v>1000000</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V10" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W10" s="31"/>
       <c r="X10" s="31"/>
@@ -7077,7 +7084,7 @@
     </row>
     <row r="11" spans="1:33" ht="14.05">
       <c r="A11" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>398</v>
@@ -7089,46 +7096,46 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O11" s="8">
         <v>30</v>
       </c>
-      <c r="P11" s="34" t="s">
-        <v>340</v>
+      <c r="P11" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R11" s="8">
         <v>1000000</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V11" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W11" s="31"/>
       <c r="X11" s="31"/>
@@ -7144,7 +7151,7 @@
     </row>
     <row r="12" spans="1:33" ht="14.05">
       <c r="A12" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>399</v>
@@ -7156,46 +7163,46 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O12" s="8">
         <v>30</v>
       </c>
-      <c r="P12" s="34" t="s">
-        <v>340</v>
+      <c r="P12" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R12" s="8">
         <v>1000000</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V12" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W12" s="31"/>
       <c r="X12" s="31"/>
@@ -7231,7 +7238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{bffcab45-dbf5-487a-b747-df796b693560}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151655cb-0b1a-4fa2-b28d-517c0e127561}">
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="M1">
@@ -7240,61 +7247,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="97" style="12" customWidth="1"/>
-    <col min="2" max="2" width="87.85714285714286" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.857142857142858" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.714285714285714" style="12" customWidth="1"/>
-    <col min="5" max="5" width="95.71428571428571" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.285714285714285" style="12" customWidth="1"/>
-    <col min="7" max="7" width="87.85714285714286" style="12" customWidth="1"/>
-    <col min="8" max="8" width="73.28571428571429" style="12" customWidth="1"/>
-    <col min="9" max="10" width="79.28571428571429" style="12" customWidth="1"/>
-    <col min="11" max="11" width="117.57142857142857" style="12" customWidth="1"/>
-    <col min="12" max="12" width="120" style="12" customWidth="1"/>
-    <col min="13" max="13" width="106.71428571428571" style="12" customWidth="1"/>
-    <col min="14" max="14" width="38.57142857142857" style="12" customWidth="1"/>
-    <col min="15" max="21" width="25" style="12" customWidth="1"/>
-    <col min="22" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="97.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="87.85714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="15.857142857142858" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="14.714285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="95.71428571428571" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="20.285714285714285" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="87.85714285714286" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="73.28571428571429" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="12" width="79.28571428571429" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="117.57142857142857" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="12" width="120.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="12" width="106.71428571428571" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="12" width="38.57142857142857" collapsed="true"/>
+    <col min="15" max="21" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="22" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.05">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="39" t="s">
         <v>52</v>
       </c>
       <c r="N1" s="27" t="s">
@@ -7425,7 +7432,7 @@
         <v>414</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>419</v>
@@ -7511,7 +7518,7 @@
       <c r="M5" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O5" s="31"/>
@@ -7824,7 +7831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07db1db6-e580-48b8-b9a9-98806775f863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40d00f96-8512-4259-9422-f10449db81fb}">
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="K1">
@@ -7833,54 +7840,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="103" style="12" customWidth="1"/>
-    <col min="2" max="2" width="81.85714285714286" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.857142857142858" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.714285714285714" style="12" customWidth="1"/>
-    <col min="5" max="5" width="103.28571428571429" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22" style="12" customWidth="1"/>
-    <col min="7" max="8" width="75.28571428571429" style="12" customWidth="1"/>
-    <col min="9" max="9" width="118.85714285714286" style="12" customWidth="1"/>
-    <col min="10" max="10" width="121.85714285714286" style="12" customWidth="1"/>
-    <col min="11" max="11" width="130" style="12" customWidth="1"/>
-    <col min="12" max="12" width="33.285714285714285" style="12" customWidth="1"/>
-    <col min="13" max="13" width="38.857142857142854" style="12" customWidth="1"/>
-    <col min="14" max="19" width="25" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="103.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="81.85714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="15.857142857142858" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="14.714285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="103.28571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="22.0" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="12" width="75.28571428571429" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="12" width="118.85714285714286" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="121.85714285714286" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="130.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="12" width="33.285714285714285" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="12" width="38.857142857142854" collapsed="true"/>
+    <col min="14" max="19" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="20" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.05">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="39" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="27" t="s">
@@ -8077,7 +8084,7 @@
         <v>451</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>457</v>
@@ -8110,7 +8117,7 @@
         <v>459</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31"/>
@@ -8308,7 +8315,7 @@
         <v>429</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>409</v>
@@ -8542,7 +8549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3906c41a-6249-451e-b17e-f89456d43350}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520f25a0-be0d-4ca4-86fe-4b353a41ea9d}">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="J1">
@@ -8551,19 +8558,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="85.28571428571429" style="12" customWidth="1"/>
-    <col min="2" max="2" width="87.85714285714286" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.857142857142858" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.714285714285714" style="12" customWidth="1"/>
-    <col min="5" max="5" width="103.28571428571429" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22" style="12" customWidth="1"/>
-    <col min="7" max="7" width="75.85714285714286" style="12" customWidth="1"/>
-    <col min="8" max="8" width="136.85714285714286" style="12" customWidth="1"/>
-    <col min="9" max="9" width="121" style="12" customWidth="1"/>
-    <col min="10" max="10" width="143.71428571428572" style="12" customWidth="1"/>
-    <col min="11" max="11" width="34.42857142857143" style="12" customWidth="1"/>
-    <col min="12" max="18" width="25" style="12" customWidth="1"/>
-    <col min="19" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="85.28571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="87.85714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="15.857142857142858" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="14.714285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="103.28571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="22.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="75.85714285714286" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="136.85714285714286" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="12" width="121.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="143.71428571428572" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="34.42857142857143" collapsed="true"/>
+    <col min="12" max="18" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="19" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.05">
@@ -8583,7 +8590,7 @@
         <v>400</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>49</v>
@@ -8883,7 +8890,7 @@
         <v>429</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>489</v>
@@ -9060,7 +9067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102177e8-4268-4cc4-821b-abedbde1882f}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a59e2718-e3d0-4dfa-bf9b-53f57c9f078b}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -9069,19 +9076,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="102.71428571428571" style="12" customWidth="1"/>
-    <col min="2" max="2" width="83.14285714285714" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.857142857142858" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.714285714285714" style="12" customWidth="1"/>
-    <col min="5" max="5" width="103.28571428571429" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22" style="12" customWidth="1"/>
-    <col min="7" max="7" width="72.14285714285714" style="12" customWidth="1"/>
-    <col min="8" max="8" width="141.71428571428572" style="12" customWidth="1"/>
-    <col min="9" max="9" width="109" style="12" customWidth="1"/>
-    <col min="10" max="10" width="115.57142857142857" style="12" customWidth="1"/>
-    <col min="11" max="11" width="60.57142857142857" style="12" customWidth="1"/>
-    <col min="12" max="19" width="25" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="102.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="83.14285714285714" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="15.857142857142858" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="14.714285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="103.28571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="22.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="72.14285714285714" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="141.71428571428572" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="12" width="109.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="115.57142857142857" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="60.57142857142857" collapsed="true"/>
+    <col min="12" max="19" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="20" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.05">
@@ -9101,7 +9108,7 @@
         <v>400</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>49</v>
@@ -9402,7 +9409,7 @@
         <v>462</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>519</v>
@@ -9431,7 +9438,7 @@
         <v>515</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>544</v>
@@ -9748,7 +9755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3cbd0aee-4617-4306-8357-780e8f463275}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a971ee42-5d79-46f7-93b7-a8b6fd3de7a7}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="K1">
@@ -9757,21 +9764,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="111.14285714285714" style="12" customWidth="1"/>
-    <col min="2" max="2" width="102.28571428571429" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.285714285714286" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.571428571428571" style="12" customWidth="1"/>
-    <col min="5" max="5" width="101.28571428571429" style="12" customWidth="1"/>
-    <col min="6" max="6" width="21.428571428571427" style="12" customWidth="1"/>
-    <col min="7" max="7" width="41.285714285714285" style="12" customWidth="1"/>
-    <col min="8" max="8" width="134.85714285714286" style="12" customWidth="1"/>
-    <col min="9" max="9" width="144.57142857142858" style="12" customWidth="1"/>
-    <col min="10" max="10" width="148.42857142857142" style="12" customWidth="1"/>
-    <col min="11" max="11" width="25" style="12" customWidth="1"/>
-    <col min="12" max="12" width="41" style="12" customWidth="1"/>
-    <col min="13" max="13" width="36.142857142857146" style="12" customWidth="1"/>
-    <col min="14" max="19" width="25" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="111.14285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="102.28571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="15.285714285714286" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="14.571428571428571" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="101.28571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="21.428571428571427" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="41.285714285714285" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="134.85714285714286" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="12" width="144.57142857142858" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="148.42857142857142" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="12" width="41.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="12" width="36.142857142857146" collapsed="true"/>
+    <col min="14" max="19" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="20" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.05">
@@ -9791,7 +9798,7 @@
         <v>400</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>49</v>
@@ -9838,7 +9845,7 @@
         <v>557</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>558</v>
@@ -9850,7 +9857,7 @@
         <v>420</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>559</v>
@@ -10178,7 +10185,7 @@
         <v>420</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>559</v>
@@ -10579,7 +10586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ddb1b34a-5a16-463e-a299-fba644419499}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ea0e73d7-1f73-465f-8315-b24306b9f8aa}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="Q1">
@@ -10588,26 +10595,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="88.42857142857143" style="12" customWidth="1"/>
-    <col min="2" max="2" width="77" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.857142857142858" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.714285714285714" style="12" customWidth="1"/>
-    <col min="5" max="5" width="95.71428571428571" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.285714285714285" style="12" customWidth="1"/>
-    <col min="7" max="7" width="50.57142857142857" style="12" customWidth="1"/>
-    <col min="8" max="8" width="50.142857142857146" style="12" customWidth="1"/>
-    <col min="9" max="9" width="47.285714285714285" style="12" customWidth="1"/>
-    <col min="10" max="10" width="10.571428571428571" style="12" customWidth="1"/>
-    <col min="11" max="11" width="6.428571428571429" style="12" customWidth="1"/>
-    <col min="12" max="12" width="8.142857142857142" style="12" customWidth="1"/>
-    <col min="13" max="13" width="74.71428571428571" style="12" customWidth="1"/>
-    <col min="14" max="14" width="116.42857142857143" style="12" customWidth="1"/>
-    <col min="15" max="15" width="138.85714285714286" style="12" customWidth="1"/>
-    <col min="16" max="16" width="160" style="12" customWidth="1"/>
-    <col min="17" max="17" width="68.28571428571429" style="12" customWidth="1"/>
-    <col min="18" max="18" width="44.57142857142857" style="12" customWidth="1"/>
-    <col min="19" max="25" width="25" style="12" customWidth="1"/>
-    <col min="26" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="88.42857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="77.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="15.857142857142858" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="14.714285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="95.71428571428571" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="20.285714285714285" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="50.57142857142857" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="50.142857142857146" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="12" width="47.285714285714285" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="10.571428571428571" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="6.428571428571429" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="12" width="8.142857142857142" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="12" width="74.71428571428571" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="12" width="116.42857142857143" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="12" width="138.85714285714286" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="12" width="160.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="12" width="68.28571428571429" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="12" width="44.57142857142857" collapsed="true"/>
+    <col min="19" max="25" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="26" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.05">
@@ -10627,7 +10634,7 @@
         <v>400</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>609</v>
@@ -10636,16 +10643,16 @@
         <v>610</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>611</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>49</v>
@@ -10832,13 +10839,13 @@
         <v>12</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>634</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>620</v>
@@ -10879,7 +10886,7 @@
         <v>615</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>633</v>
@@ -10891,13 +10898,13 @@
         <v>12</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>634</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>620</v>
@@ -10975,7 +10982,7 @@
         <v>612</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>639</v>
@@ -11484,7 +11491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1b28d768-2fdc-429e-8a18-2cbfc12510df}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a76e3579-efe0-42ab-a2f1-467be907daec}">
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="L1">
@@ -11493,22 +11500,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="93.14285714285714" style="12" customWidth="1"/>
-    <col min="2" max="2" width="87.85714285714286" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.285714285714286" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.571428571428571" style="12" customWidth="1"/>
-    <col min="5" max="5" width="101.28571428571429" style="12" customWidth="1"/>
-    <col min="6" max="6" width="21.428571428571427" style="12" customWidth="1"/>
-    <col min="7" max="7" width="41" style="12" customWidth="1"/>
-    <col min="8" max="8" width="47.57142857142857" style="12" customWidth="1"/>
-    <col min="9" max="9" width="60.285714285714285" style="12" customWidth="1"/>
-    <col min="10" max="10" width="119.71428571428571" style="12" customWidth="1"/>
-    <col min="11" max="12" width="106.71428571428571" style="12" customWidth="1"/>
-    <col min="13" max="13" width="25" style="12" customWidth="1"/>
-    <col min="14" max="14" width="39.57142857142857" style="12" customWidth="1"/>
-    <col min="15" max="15" width="32.57142857142857" style="12" customWidth="1"/>
-    <col min="16" max="21" width="25" style="12" customWidth="1"/>
-    <col min="22" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="93.14285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="87.85714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="15.285714285714286" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="14.571428571428571" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="101.28571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="21.428571428571427" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="41.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="47.57142857142857" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="12" width="60.285714285714285" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="119.71428571428571" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="12" width="106.71428571428571" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="12" width="39.57142857142857" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="12" width="32.57142857142857" collapsed="true"/>
+    <col min="16" max="21" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="22" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.05">
@@ -11528,7 +11535,7 @@
         <v>400</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>657</v>
@@ -11630,7 +11637,7 @@
         <v>659</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>670</v>
@@ -12440,7 +12447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f1dc4f23-bb15-43d2-b815-beac78b59764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ffe1fec-4cb2-4aa7-8858-4399485bcbb4}">
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="M1">
@@ -12449,23 +12456,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="113.28571428571429" style="12" customWidth="1"/>
-    <col min="2" max="2" width="77" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.857142857142858" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.714285714285714" style="12" customWidth="1"/>
-    <col min="5" max="5" width="95.71428571428571" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.285714285714285" style="12" customWidth="1"/>
-    <col min="7" max="7" width="45.714285714285715" style="12" customWidth="1"/>
-    <col min="8" max="8" width="31.142857142857142" style="12" customWidth="1"/>
-    <col min="9" max="9" width="90.14285714285714" style="12" customWidth="1"/>
-    <col min="10" max="10" width="78.85714285714286" style="12" customWidth="1"/>
-    <col min="11" max="11" width="115.57142857142857" style="12" customWidth="1"/>
-    <col min="12" max="12" width="127.42857142857143" style="12" customWidth="1"/>
-    <col min="13" max="13" width="138.42857142857142" style="12" customWidth="1"/>
-    <col min="14" max="14" width="25" style="12" customWidth="1"/>
-    <col min="15" max="15" width="44.285714285714285" style="12" customWidth="1"/>
-    <col min="16" max="22" width="25" style="12" customWidth="1"/>
-    <col min="23" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="113.28571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="77.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="15.857142857142858" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="14.714285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="95.71428571428571" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="20.285714285714285" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="45.714285714285715" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="31.142857142857142" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="12" width="90.14285714285714" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="78.85714285714286" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="115.57142857142857" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="12" width="127.42857142857143" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="12" width="138.42857142857142" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="12" width="44.285714285714285" collapsed="true"/>
+    <col min="16" max="22" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="23" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.05">
@@ -12485,7 +12492,7 @@
         <v>400</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>711</v>
@@ -12553,7 +12560,7 @@
         <v>407</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>717</v>
@@ -12591,7 +12598,7 @@
         <v>714</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>724</v>
@@ -13047,7 +13054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1094e108-ff74-4276-b8a2-b84da1972dbe}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cce18af4-bacb-43d3-a198-602b1c2145a5}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -13056,10 +13063,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="49.714285714285715" style="12" customWidth="1"/>
-    <col min="2" max="2" width="57" style="12" customWidth="1"/>
-    <col min="3" max="3" width="57.714285714285715" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="49.714285714285715" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="57.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="57.714285714285715" collapsed="true"/>
+    <col min="4" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.05">
@@ -13201,30 +13208,30 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3c784656-ccb6-44a7-b94f-62e19a2716f8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8af774fd-7d76-4baa-b4f2-5cd97c41b0a6}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="O1">
+    <sheetView workbookViewId="0" topLeftCell="O1">
       <selection pane="topLeft" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="74.71428571428571" style="12" customWidth="1"/>
-    <col min="2" max="2" width="83.71428571428571" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.285714285714286" style="12" customWidth="1"/>
-    <col min="4" max="6" width="15.857142857142858" style="12" customWidth="1"/>
-    <col min="7" max="7" width="101.28571428571429" style="12" customWidth="1"/>
-    <col min="8" max="8" width="21.428571428571427" style="12" customWidth="1"/>
-    <col min="9" max="9" width="52.857142857142854" style="12" customWidth="1"/>
-    <col min="10" max="10" width="78.85714285714286" style="12" customWidth="1"/>
-    <col min="11" max="11" width="108.28571428571429" style="12" customWidth="1"/>
-    <col min="12" max="14" width="138" style="12" customWidth="1"/>
-    <col min="15" max="15" width="128.42857142857142" style="12" customWidth="1"/>
-    <col min="16" max="16" width="25" style="12" customWidth="1"/>
-    <col min="17" max="17" width="39.857142857142854" style="12" customWidth="1"/>
-    <col min="18" max="24" width="25" style="12" customWidth="1"/>
-    <col min="25" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="74.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="83.71428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="15.285714285714286" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" style="12" width="15.857142857142858" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="101.28571428571429" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="21.428571428571427" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="12" width="52.857142857142854" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="78.85714285714286" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="108.28571428571429" collapsed="true"/>
+    <col min="12" max="14" customWidth="true" style="12" width="138.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="12" width="128.42857142857142" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="12" width="39.857142857142854" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="25" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.05">
@@ -13250,7 +13257,7 @@
         <v>400</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>747</v>
@@ -13686,7 +13693,7 @@
         <v>751</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>783</v>
@@ -13700,7 +13707,7 @@
         <v>420</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>784</v>
@@ -13816,7 +13823,7 @@
         <v>429</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>789</v>
@@ -14004,7 +14011,7 @@
         <v>462</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>779</v>
@@ -14102,7 +14109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d143414d-1761-422d-bc03-d45a28774e66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{eb7a2322-b507-4db6-a02c-bac939348827}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -14111,16 +14118,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="71.71428571428571" style="12" customWidth="1"/>
-    <col min="2" max="2" width="92" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.857142857142854" style="12" customWidth="1"/>
-    <col min="4" max="4" width="32" style="12" customWidth="1"/>
-    <col min="5" max="5" width="218.71428571428572" style="12" customWidth="1"/>
-    <col min="6" max="6" width="47.57142857142857" style="12" customWidth="1"/>
-    <col min="7" max="7" width="71.14285714285714" style="12" customWidth="1"/>
-    <col min="8" max="8" width="159.28571428571428" style="12" customWidth="1"/>
-    <col min="9" max="10" width="133" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="71.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="92.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="33.857142857142854" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="32.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="218.71428571428572" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="47.57142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="71.14285714285714" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="159.28571428571428" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="12" width="133.0" collapsed="true"/>
+    <col min="11" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.05">
@@ -14136,11 +14143,11 @@
       <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>400</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>49</v>
@@ -14438,7 +14445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19d0518c-5682-48db-aa72-32d1e29d2e50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70ba4043-49d7-45f5-a55a-a0c4bdc545ff}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -14447,16 +14454,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.144285714285715" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="77.85714285714286" style="4" customWidth="1"/>
-    <col min="2" max="2" width="107" style="4" customWidth="1"/>
-    <col min="3" max="3" width="29.428571428571427" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.857142857142858" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41" style="4" customWidth="1"/>
-    <col min="6" max="6" width="72.57142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="60.57142857142857" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.571428571428573" style="4" customWidth="1"/>
-    <col min="9" max="26" width="20.571428571428573" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="37.142857142857146" style="9"/>
+    <col min="1" max="1" customWidth="true" style="4" width="77.85714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="107.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="29.428571428571427" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="27.857142857142858" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="41.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="72.57142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="60.57142857142857" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="20.571428571428573" collapsed="true"/>
+    <col min="9" max="26" customWidth="true" style="9" width="20.571428571428573" collapsed="true"/>
+    <col min="27" max="16384" style="9" width="37.142857142857146" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.05">
@@ -14473,10 +14480,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>832</v>
@@ -14523,7 +14530,7 @@
         <v>836</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H2" s="63" t="s">
         <v>837</v>
@@ -14590,7 +14597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3e86cdd3-2819-4854-9de5-08058602bd6a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61e3552f-d93c-4fbd-9133-610f5185a2b1}">
   <dimension ref="A1:BF1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -14599,36 +14606,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.144285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="84.71428571428571" style="4" customWidth="1"/>
-    <col min="2" max="2" width="86.57142857142857" style="4" customWidth="1"/>
-    <col min="3" max="3" width="54.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.714285714285714" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.857142857142858" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.428571428571427" style="4" customWidth="1"/>
-    <col min="7" max="8" width="41.285714285714285" style="4" customWidth="1"/>
-    <col min="9" max="9" width="63.714285714285715" style="4" customWidth="1"/>
-    <col min="10" max="10" width="41.285714285714285" style="4" customWidth="1"/>
-    <col min="11" max="11" width="22.428571428571427" style="4" customWidth="1"/>
-    <col min="12" max="12" width="41.285714285714285" style="4" customWidth="1"/>
-    <col min="13" max="13" width="54.714285714285715" style="4" customWidth="1"/>
-    <col min="14" max="14" width="41.285714285714285" style="4" customWidth="1"/>
-    <col min="15" max="15" width="23.857142857142858" style="4" customWidth="1"/>
-    <col min="16" max="23" width="41.285714285714285" style="4" customWidth="1"/>
-    <col min="24" max="24" width="72.57142857142857" style="4" customWidth="1"/>
-    <col min="25" max="25" width="34.42857142857143" style="4" customWidth="1"/>
-    <col min="26" max="26" width="66.85714285714286" style="4" customWidth="1"/>
-    <col min="27" max="27" width="65.14285714285714" style="4" customWidth="1"/>
-    <col min="28" max="28" width="57" style="4" customWidth="1"/>
-    <col min="29" max="31" width="41.285714285714285" style="4" customWidth="1"/>
-    <col min="32" max="32" width="60.57142857142857" style="4" customWidth="1"/>
-    <col min="33" max="46" width="41.285714285714285" style="4" customWidth="1"/>
-    <col min="47" max="47" width="49.714285714285715" style="4" customWidth="1"/>
-    <col min="48" max="48" width="41.285714285714285" style="4" customWidth="1"/>
-    <col min="49" max="49" width="65.14285714285714" style="4" customWidth="1"/>
-    <col min="50" max="50" width="61.714285714285715" style="4" customWidth="1"/>
-    <col min="51" max="54" width="41.285714285714285" style="4" customWidth="1"/>
-    <col min="55" max="58" width="36.857142857142854" style="4" customWidth="1"/>
-    <col min="59" max="16384" width="37.142857142857146" style="9"/>
+    <col min="1" max="1" customWidth="true" style="4" width="84.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="86.57142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="54.42857142857143" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="15.714285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="14.857142857142858" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="21.428571428571427" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="63.714285714285715" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="22.428571428571427" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="54.714285714285715" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="23.857142857142858" collapsed="true"/>
+    <col min="16" max="23" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="4" width="72.57142857142857" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="4" width="34.42857142857143" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="4" width="66.85714285714286" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="4" width="65.14285714285714" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="4" width="57.0" collapsed="true"/>
+    <col min="29" max="31" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="4" width="60.57142857142857" collapsed="true"/>
+    <col min="33" max="46" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="4" width="49.714285714285715" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="4" width="65.14285714285714" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="4" width="61.714285714285715" collapsed="true"/>
+    <col min="51" max="54" customWidth="true" style="4" width="41.285714285714285" collapsed="true"/>
+    <col min="55" max="58" customWidth="true" style="4" width="36.857142857142854" collapsed="true"/>
+    <col min="59" max="16384" style="9" width="37.142857142857146" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="14.05">
@@ -14681,7 +14688,7 @@
         <v>854</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>855</v>
@@ -14830,7 +14837,7 @@
         <v>890</v>
       </c>
       <c r="H2" s="68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I2" s="68" t="s">
         <v>891</v>
@@ -33102,7 +33109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b36dd7ea-3229-47f0-9936-bc4fc84e9805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e84c9a14-5c3d-4c9a-a8d6-0a52b6850189}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -33111,33 +33118,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.574285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="55.42857142857143" style="76" customWidth="1"/>
-    <col min="2" max="2" width="67.28571428571429" style="76" customWidth="1"/>
-    <col min="3" max="3" width="16" style="76" customWidth="1"/>
-    <col min="4" max="4" width="15.142857142857142" style="76" customWidth="1"/>
-    <col min="5" max="5" width="43.57142857142857" style="76" customWidth="1"/>
-    <col min="6" max="6" width="21.714285714285715" style="76" customWidth="1"/>
-    <col min="7" max="7" width="22.857142857142858" style="76" customWidth="1"/>
-    <col min="8" max="8" width="16" style="76" customWidth="1"/>
-    <col min="9" max="9" width="19.857142857142858" style="76" customWidth="1"/>
-    <col min="10" max="10" width="27.285714285714285" style="76" customWidth="1"/>
-    <col min="11" max="11" width="29.285714285714285" style="76" customWidth="1"/>
-    <col min="12" max="12" width="53.142857142857146" style="76" customWidth="1"/>
-    <col min="13" max="13" width="32" style="76" customWidth="1"/>
-    <col min="14" max="14" width="40" style="76" customWidth="1"/>
-    <col min="15" max="15" width="29.428571428571427" style="76" customWidth="1"/>
-    <col min="16" max="16" width="47.57142857142857" style="76" customWidth="1"/>
-    <col min="17" max="17" width="52.857142857142854" style="76" customWidth="1"/>
-    <col min="18" max="18" width="28.142857142857142" style="76" customWidth="1"/>
-    <col min="19" max="19" width="28.857142857142858" style="76" customWidth="1"/>
-    <col min="20" max="20" width="29.714285714285715" style="76" customWidth="1"/>
-    <col min="21" max="21" width="34.285714285714285" style="76" customWidth="1"/>
-    <col min="22" max="22" width="30.142857142857142" style="76" customWidth="1"/>
-    <col min="23" max="23" width="37.285714285714285" style="76" customWidth="1"/>
-    <col min="24" max="24" width="29.857142857142858" style="76" customWidth="1"/>
-    <col min="25" max="25" width="32" style="76" customWidth="1"/>
-    <col min="26" max="26" width="16.714285714285715" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="29.571428571428573" style="9"/>
+    <col min="1" max="1" customWidth="true" style="76" width="55.42857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="76" width="67.28571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="76" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="76" width="15.142857142857142" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="76" width="43.57142857142857" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="76" width="21.714285714285715" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="76" width="22.857142857142858" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="76" width="16.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="76" width="19.857142857142858" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="76" width="27.285714285714285" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="76" width="29.285714285714285" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="76" width="53.142857142857146" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="76" width="32.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="76" width="40.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="76" width="29.428571428571427" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="76" width="47.57142857142857" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="76" width="52.857142857142854" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="76" width="28.142857142857142" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="76" width="28.857142857142858" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="76" width="29.714285714285715" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="76" width="34.285714285714285" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="76" width="30.142857142857142" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="76" width="37.285714285714285" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="76" width="29.857142857142858" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="76" width="32.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="9" width="16.714285714285715" collapsed="true"/>
+    <col min="27" max="16384" style="9" width="29.571428571428573" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.05">
@@ -33421,7 +33428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23e1faa2-5ed3-4e8b-a6aa-c28323945326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5d8bc0a1-b8bb-4f21-b8ab-08d50a9e8829}">
   <dimension ref="A1:AX5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -33430,27 +33437,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.574285714285715" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="58.857142857142854" style="76" customWidth="1"/>
-    <col min="2" max="2" width="66.85714285714286" style="76" customWidth="1"/>
-    <col min="3" max="3" width="15.714285714285714" style="76" customWidth="1"/>
-    <col min="4" max="4" width="14.857142857142858" style="76" customWidth="1"/>
-    <col min="5" max="5" width="37.857142857142854" style="76" customWidth="1"/>
-    <col min="6" max="6" width="22.428571428571427" style="76" customWidth="1"/>
-    <col min="7" max="10" width="32.857142857142854" style="76" customWidth="1"/>
-    <col min="11" max="11" width="40" style="76" customWidth="1"/>
-    <col min="12" max="13" width="32.857142857142854" style="76" customWidth="1"/>
-    <col min="14" max="14" width="38.57142857142857" style="76" customWidth="1"/>
-    <col min="15" max="15" width="41.285714285714285" style="76" customWidth="1"/>
-    <col min="16" max="17" width="32.857142857142854" style="76" customWidth="1"/>
-    <col min="18" max="18" width="45.57142857142857" style="76" customWidth="1"/>
-    <col min="19" max="19" width="57.714285714285715" style="76" customWidth="1"/>
-    <col min="20" max="20" width="43.285714285714285" style="76" customWidth="1"/>
-    <col min="21" max="39" width="32.857142857142854" style="76" customWidth="1"/>
-    <col min="40" max="40" width="55.42857142857143" style="76" customWidth="1"/>
-    <col min="41" max="41" width="57" style="76" customWidth="1"/>
-    <col min="42" max="42" width="16" style="76" customWidth="1"/>
-    <col min="43" max="50" width="29.285714285714285" style="76" customWidth="1"/>
-    <col min="51" max="16384" width="29.571428571428573" style="9"/>
+    <col min="1" max="1" customWidth="true" style="76" width="58.857142857142854" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="76" width="66.85714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="76" width="15.714285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="76" width="14.857142857142858" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="76" width="37.857142857142854" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="76" width="22.428571428571427" collapsed="true"/>
+    <col min="7" max="10" customWidth="true" style="76" width="32.857142857142854" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="76" width="40.0" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" style="76" width="32.857142857142854" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="76" width="38.57142857142857" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="76" width="41.285714285714285" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" style="76" width="32.857142857142854" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="76" width="45.57142857142857" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="76" width="57.714285714285715" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="76" width="43.285714285714285" collapsed="true"/>
+    <col min="21" max="39" customWidth="true" style="76" width="32.857142857142854" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="76" width="55.42857142857143" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="76" width="57.0" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="76" width="16.0" collapsed="true"/>
+    <col min="43" max="50" customWidth="true" style="76" width="29.285714285714285" collapsed="true"/>
+    <col min="51" max="16384" style="9" width="29.571428571428573" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="14.9">
@@ -33938,7 +33945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77347100-0520-44e6-a677-c7074bf1dadf}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f4e6acc3-52ea-4592-91aa-779f6d7fa99e}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -33947,28 +33954,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.004285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="52.714285714285715" style="86" customWidth="1"/>
-    <col min="2" max="2" width="59.714285714285715" style="86" customWidth="1"/>
-    <col min="3" max="3" width="16" style="86" customWidth="1"/>
-    <col min="4" max="4" width="15.142857142857142" style="86" customWidth="1"/>
-    <col min="5" max="5" width="16" style="86" customWidth="1"/>
-    <col min="6" max="6" width="47.857142857142854" style="86" customWidth="1"/>
-    <col min="7" max="7" width="37.42857142857143" style="86" customWidth="1"/>
-    <col min="8" max="8" width="47" style="86" customWidth="1"/>
-    <col min="9" max="9" width="26.714285714285715" style="86" customWidth="1"/>
-    <col min="10" max="10" width="25.285714285714285" style="86" customWidth="1"/>
-    <col min="11" max="11" width="38.857142857142854" style="86" customWidth="1"/>
-    <col min="12" max="12" width="84.42857142857143" style="86" customWidth="1"/>
-    <col min="13" max="13" width="73.28571428571429" style="86" customWidth="1"/>
-    <col min="14" max="14" width="34.142857142857146" style="86" customWidth="1"/>
-    <col min="15" max="15" width="34" style="86" customWidth="1"/>
-    <col min="16" max="16" width="34.285714285714285" style="86" customWidth="1"/>
-    <col min="17" max="17" width="29.285714285714285" style="86" customWidth="1"/>
-    <col min="18" max="18" width="24.571428571428573" style="86" customWidth="1"/>
-    <col min="19" max="19" width="37.42857142857143" style="86" customWidth="1"/>
-    <col min="20" max="20" width="24.857142857142858" style="86" customWidth="1"/>
-    <col min="21" max="21" width="23.571428571428573" style="86" customWidth="1"/>
-    <col min="22" max="16384" width="18" style="14"/>
+    <col min="1" max="1" customWidth="true" style="86" width="52.714285714285715" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="86" width="59.714285714285715" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="86" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="86" width="15.142857142857142" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="86" width="16.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="86" width="47.857142857142854" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="86" width="37.42857142857143" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="86" width="47.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="86" width="26.714285714285715" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="86" width="25.285714285714285" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="86" width="38.857142857142854" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="86" width="84.42857142857143" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="86" width="73.28571428571429" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="86" width="34.142857142857146" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="86" width="34.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="86" width="34.285714285714285" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="86" width="29.285714285714285" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="86" width="24.571428571428573" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="86" width="37.42857142857143" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="86" width="24.857142857142858" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="86" width="23.571428571428573" collapsed="true"/>
+    <col min="22" max="16384" style="14" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.05">
@@ -34189,7 +34196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a850afc9-9e47-441a-87af-82d88fa924d6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7f680630-c410-4061-b486-bce724f1cd00}">
   <dimension ref="A1:AT52"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="AV1">
@@ -34198,53 +34205,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.004285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="52.714285714285715" style="86" customWidth="1"/>
-    <col min="2" max="2" width="59.714285714285715" style="86" customWidth="1"/>
-    <col min="3" max="3" width="16" style="86" customWidth="1"/>
-    <col min="4" max="4" width="15.142857142857142" style="86" customWidth="1"/>
-    <col min="5" max="5" width="38.57142857142857" style="86" customWidth="1"/>
-    <col min="6" max="6" width="21.714285714285715" style="86" customWidth="1"/>
-    <col min="7" max="7" width="30.285714285714285" style="86" customWidth="1"/>
-    <col min="8" max="8" width="22.714285714285715" style="86" customWidth="1"/>
-    <col min="9" max="9" width="21.428571428571427" style="86" customWidth="1"/>
-    <col min="10" max="10" width="51" style="86" customWidth="1"/>
-    <col min="11" max="11" width="38.57142857142857" style="86" customWidth="1"/>
-    <col min="12" max="12" width="35.42857142857143" style="86" customWidth="1"/>
-    <col min="13" max="13" width="33.57142857142857" style="86" customWidth="1"/>
-    <col min="14" max="14" width="52.42857142857143" style="86" customWidth="1"/>
-    <col min="15" max="15" width="57.714285714285715" style="86" customWidth="1"/>
-    <col min="16" max="16" width="65.57142857142857" style="86" customWidth="1"/>
-    <col min="17" max="17" width="58.714285714285715" style="86" customWidth="1"/>
-    <col min="18" max="18" width="51.42857142857143" style="86" customWidth="1"/>
-    <col min="19" max="19" width="32.285714285714285" style="86" customWidth="1"/>
-    <col min="20" max="20" width="30.714285714285715" style="86" customWidth="1"/>
-    <col min="21" max="21" width="47.285714285714285" style="86" customWidth="1"/>
-    <col min="22" max="22" width="41.42857142857143" style="86" customWidth="1"/>
-    <col min="23" max="23" width="16.571428571428573" style="86" customWidth="1"/>
-    <col min="24" max="24" width="31.285714285714285" style="86" customWidth="1"/>
-    <col min="25" max="25" width="32" style="86" customWidth="1"/>
-    <col min="26" max="26" width="35" style="86" customWidth="1"/>
-    <col min="27" max="27" width="30.428571428571427" style="86" customWidth="1"/>
-    <col min="28" max="28" width="22.571428571428573" style="86" customWidth="1"/>
-    <col min="29" max="29" width="21.714285714285715" style="86" customWidth="1"/>
-    <col min="30" max="30" width="43" style="86" customWidth="1"/>
-    <col min="31" max="31" width="41.42857142857143" style="86" customWidth="1"/>
-    <col min="32" max="32" width="38.57142857142857" style="86" customWidth="1"/>
-    <col min="33" max="33" width="34.714285714285715" style="86" customWidth="1"/>
-    <col min="34" max="34" width="38.142857142857146" style="86" customWidth="1"/>
-    <col min="35" max="35" width="45.57142857142857" style="86" customWidth="1"/>
-    <col min="36" max="36" width="35.142857142857146" style="86" customWidth="1"/>
-    <col min="37" max="37" width="25.857142857142858" style="86" customWidth="1"/>
-    <col min="38" max="38" width="29.428571428571427" style="86" customWidth="1"/>
-    <col min="39" max="39" width="36.857142857142854" style="86" customWidth="1"/>
-    <col min="40" max="40" width="24.857142857142858" style="86" customWidth="1"/>
-    <col min="41" max="41" width="59.714285714285715" style="86" customWidth="1"/>
-    <col min="42" max="42" width="32.857142857142854" style="86" customWidth="1"/>
-    <col min="43" max="43" width="35.42857142857143" style="86" customWidth="1"/>
-    <col min="44" max="44" width="35" style="86" customWidth="1"/>
-    <col min="45" max="45" width="56.714285714285715" style="86" customWidth="1"/>
-    <col min="46" max="46" width="47.285714285714285" style="86" customWidth="1"/>
-    <col min="47" max="16384" width="18" style="14"/>
+    <col min="1" max="1" customWidth="true" style="86" width="52.714285714285715" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="86" width="59.714285714285715" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="86" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="86" width="15.142857142857142" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="86" width="38.57142857142857" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="86" width="21.714285714285715" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="86" width="30.285714285714285" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="86" width="22.714285714285715" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="86" width="21.428571428571427" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="86" width="51.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="86" width="38.57142857142857" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="86" width="35.42857142857143" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="86" width="33.57142857142857" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="86" width="52.42857142857143" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="86" width="57.714285714285715" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="86" width="65.57142857142857" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="86" width="58.714285714285715" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="86" width="51.42857142857143" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="86" width="32.285714285714285" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="86" width="30.714285714285715" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="86" width="47.285714285714285" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="86" width="41.42857142857143" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="86" width="16.571428571428573" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="86" width="31.285714285714285" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="86" width="32.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="86" width="35.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="86" width="30.428571428571427" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="86" width="22.571428571428573" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="86" width="21.714285714285715" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="86" width="43.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="86" width="41.42857142857143" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="86" width="38.57142857142857" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="86" width="34.714285714285715" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="86" width="38.142857142857146" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="86" width="45.57142857142857" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="86" width="35.142857142857146" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="86" width="25.857142857142858" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="86" width="29.428571428571427" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="86" width="36.857142857142854" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="86" width="24.857142857142858" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="86" width="59.714285714285715" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" style="86" width="32.857142857142854" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="86" width="35.42857142857143" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="86" width="35.0" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="86" width="56.714285714285715" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" style="86" width="47.285714285714285" collapsed="true"/>
+    <col min="47" max="16384" style="14" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="14.05">
@@ -34324,7 +34331,7 @@
         <v>1042</v>
       </c>
       <c r="Z1" s="96" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA1" s="96" t="s">
         <v>1043</v>
@@ -34378,7 +34385,7 @@
         <v>1057</v>
       </c>
       <c r="AR1" s="17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AS1" s="101" t="s">
         <v>51</v>
@@ -34815,7 +34822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791859c3-965b-4a0c-af09-692a2d5a1a0a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391ee4da-ec3f-4e79-a958-fe5ec7d3928c}">
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -34824,15 +34831,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.144285714285713" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="12.285714285714286" style="106" customWidth="1"/>
-    <col min="2" max="2" width="58.857142857142854" style="106" customWidth="1"/>
-    <col min="3" max="3" width="44.714285714285715" style="106" customWidth="1"/>
-    <col min="4" max="4" width="16.857142857142858" style="106" customWidth="1"/>
-    <col min="5" max="7" width="51.42857142857143" style="106" customWidth="1"/>
-    <col min="8" max="8" width="34.857142857142854" style="106" customWidth="1"/>
-    <col min="9" max="9" width="34.42857142857143" style="106" customWidth="1"/>
-    <col min="10" max="10" width="33.142857142857146" style="106" customWidth="1"/>
-    <col min="11" max="16384" width="11.142857142857142" style="112"/>
+    <col min="1" max="1" customWidth="true" style="106" width="12.285714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="106" width="58.857142857142854" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="106" width="44.714285714285715" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="106" width="16.857142857142858" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="106" width="51.42857142857143" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="106" width="34.857142857142854" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="106" width="34.42857142857143" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="106" width="33.142857142857146" collapsed="true"/>
+    <col min="11" max="16384" style="112" width="11.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.05">
@@ -34875,7 +34882,7 @@
         <v>1087</v>
       </c>
       <c r="C2" s="105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D2" s="110" t="s">
         <v>1070</v>
@@ -34901,7 +34908,7 @@
         <v>1088</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D3" s="110" t="s">
         <v>1070</v>
@@ -34921,7 +34928,7 @@
         <v>1089</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D4" s="110" t="s">
         <v>1070</v>
@@ -34941,7 +34948,7 @@
         <v>1090</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D5" s="110" t="s">
         <v>1070</v>
@@ -34961,7 +34968,7 @@
         <v>1091</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6" s="110" t="s">
         <v>1070</v>
@@ -34987,7 +34994,7 @@
         <v>1092</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" s="110" t="s">
         <v>1070</v>
@@ -35007,7 +35014,7 @@
         <v>1093</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D8" s="110" t="s">
         <v>1070</v>
@@ -35027,7 +35034,7 @@
         <v>1094</v>
       </c>
       <c r="C9" s="105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D9" s="110" t="s">
         <v>1070</v>
@@ -35047,7 +35054,7 @@
         <v>1095</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D10" s="110" t="s">
         <v>1070</v>
@@ -35073,7 +35080,7 @@
         <v>1096</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D11" s="110" t="s">
         <v>1070</v>
@@ -35093,7 +35100,7 @@
         <v>1097</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D12" s="110" t="s">
         <v>1070</v>
@@ -35113,7 +35120,7 @@
         <v>1098</v>
       </c>
       <c r="C13" s="105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D13" s="110" t="s">
         <v>1070</v>
@@ -35133,7 +35140,7 @@
         <v>1099</v>
       </c>
       <c r="C14" s="105" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D14" s="110" t="s">
         <v>1070</v>
@@ -35159,7 +35166,7 @@
         <v>1100</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D15" s="110" t="s">
         <v>1070</v>
@@ -35179,7 +35186,7 @@
         <v>1101</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D16" s="110" t="s">
         <v>1070</v>
@@ -35199,7 +35206,7 @@
         <v>1102</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D17" s="110" t="s">
         <v>1070</v>
@@ -35219,7 +35226,7 @@
         <v>1103</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D18" s="110" t="s">
         <v>1070</v>
@@ -35245,7 +35252,7 @@
         <v>1104</v>
       </c>
       <c r="C19" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D19" s="110" t="s">
         <v>1070</v>
@@ -35265,7 +35272,7 @@
         <v>1105</v>
       </c>
       <c r="C20" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D20" s="110" t="s">
         <v>1070</v>
@@ -35285,7 +35292,7 @@
         <v>1106</v>
       </c>
       <c r="C21" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D21" s="110" t="s">
         <v>1070</v>
@@ -35305,7 +35312,7 @@
         <v>1107</v>
       </c>
       <c r="C22" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D22" s="110" t="s">
         <v>1070</v>
@@ -35331,7 +35338,7 @@
         <v>1108</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D23" s="110" t="s">
         <v>1070</v>
@@ -35351,7 +35358,7 @@
         <v>1109</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D24" s="110" t="s">
         <v>1070</v>
@@ -35371,7 +35378,7 @@
         <v>1110</v>
       </c>
       <c r="C25" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D25" s="110" t="s">
         <v>1070</v>
@@ -35391,7 +35398,7 @@
         <v>1111</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D26" s="110" t="s">
         <v>1070</v>
@@ -35417,7 +35424,7 @@
         <v>1112</v>
       </c>
       <c r="C27" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D27" s="110" t="s">
         <v>1070</v>
@@ -35437,7 +35444,7 @@
         <v>1113</v>
       </c>
       <c r="C28" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D28" s="110" t="s">
         <v>1070</v>
@@ -35457,7 +35464,7 @@
         <v>1114</v>
       </c>
       <c r="C29" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D29" s="110" t="s">
         <v>1070</v>
@@ -35991,7 +35998,7 @@
         <v>770</v>
       </c>
       <c r="C54" s="105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D54" s="110" t="s">
         <v>1070</v>
@@ -36015,7 +36022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3044f1cc-078f-44cb-a9ac-340098a64463}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ea313c6-2067-41e8-b0e0-3c3e20bfff8c}">
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="G1">
@@ -36024,17 +36031,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.854285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="10.857142857142858" style="112"/>
-    <col min="2" max="2" width="58.42857142857143" style="112" customWidth="1"/>
-    <col min="3" max="3" width="52.714285714285715" style="112" customWidth="1"/>
-    <col min="4" max="4" width="15.142857142857142" style="112" customWidth="1"/>
-    <col min="5" max="5" width="55.42857142857143" style="112" customWidth="1"/>
-    <col min="6" max="6" width="49.57142857142857" style="112" customWidth="1"/>
-    <col min="7" max="7" width="49.714285714285715" style="112" customWidth="1"/>
-    <col min="8" max="8" width="38.142857142857146" style="112" customWidth="1"/>
-    <col min="9" max="9" width="34" style="112" customWidth="1"/>
-    <col min="10" max="10" width="31.571428571428573" style="112" customWidth="1"/>
-    <col min="11" max="16384" width="10.857142857142858" style="112"/>
+    <col min="1" max="1" style="112" width="10.857142857142858" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="112" width="58.42857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="112" width="52.714285714285715" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="112" width="15.142857142857142" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="112" width="55.42857142857143" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="112" width="49.57142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="112" width="49.714285714285715" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="112" width="38.142857142857146" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="112" width="34.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="112" width="31.571428571428573" collapsed="true"/>
+    <col min="11" max="16384" style="112" width="10.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.05">
@@ -36077,7 +36084,7 @@
         <v>1139</v>
       </c>
       <c r="C2" s="105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D2" s="110" t="s">
         <v>1070</v>
@@ -36103,7 +36110,7 @@
         <v>1140</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D3" s="110" t="s">
         <v>1070</v>
@@ -36123,7 +36130,7 @@
         <v>1141</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D4" s="110" t="s">
         <v>1070</v>
@@ -36143,7 +36150,7 @@
         <v>1142</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D5" s="110" t="s">
         <v>1070</v>
@@ -36163,7 +36170,7 @@
         <v>1143</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6" s="110" t="s">
         <v>1070</v>
@@ -36189,7 +36196,7 @@
         <v>1144</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D7" s="110" t="s">
         <v>1070</v>
@@ -36209,7 +36216,7 @@
         <v>1145</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D8" s="110" t="s">
         <v>1070</v>
@@ -36229,7 +36236,7 @@
         <v>1146</v>
       </c>
       <c r="C9" s="105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D9" s="110" t="s">
         <v>1070</v>
@@ -36249,7 +36256,7 @@
         <v>1147</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D10" s="110" t="s">
         <v>1070</v>
@@ -36275,7 +36282,7 @@
         <v>1148</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D11" s="110" t="s">
         <v>1070</v>
@@ -36295,7 +36302,7 @@
         <v>1149</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D12" s="110" t="s">
         <v>1070</v>
@@ -36315,7 +36322,7 @@
         <v>1150</v>
       </c>
       <c r="C13" s="105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D13" s="110" t="s">
         <v>1070</v>
@@ -36335,7 +36342,7 @@
         <v>1151</v>
       </c>
       <c r="C14" s="105" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D14" s="110" t="s">
         <v>1070</v>
@@ -36361,7 +36368,7 @@
         <v>1152</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D15" s="110" t="s">
         <v>1070</v>
@@ -36381,7 +36388,7 @@
         <v>1153</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D16" s="110" t="s">
         <v>1070</v>
@@ -36401,7 +36408,7 @@
         <v>1154</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D17" s="110" t="s">
         <v>1070</v>
@@ -36421,7 +36428,7 @@
         <v>1155</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D18" s="110" t="s">
         <v>1070</v>
@@ -36447,7 +36454,7 @@
         <v>1156</v>
       </c>
       <c r="C19" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D19" s="110" t="s">
         <v>1070</v>
@@ -36467,7 +36474,7 @@
         <v>1157</v>
       </c>
       <c r="C20" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D20" s="110" t="s">
         <v>1070</v>
@@ -36487,7 +36494,7 @@
         <v>1158</v>
       </c>
       <c r="C21" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D21" s="110" t="s">
         <v>1070</v>
@@ -36507,7 +36514,7 @@
         <v>1159</v>
       </c>
       <c r="C22" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D22" s="110" t="s">
         <v>1070</v>
@@ -36533,7 +36540,7 @@
         <v>1160</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D23" s="110" t="s">
         <v>1070</v>
@@ -36553,7 +36560,7 @@
         <v>1161</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D24" s="110" t="s">
         <v>1070</v>
@@ -36573,7 +36580,7 @@
         <v>1162</v>
       </c>
       <c r="C25" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D25" s="110" t="s">
         <v>1070</v>
@@ -36593,7 +36600,7 @@
         <v>1163</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D26" s="110" t="s">
         <v>1070</v>
@@ -36619,7 +36626,7 @@
         <v>1164</v>
       </c>
       <c r="C27" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D27" s="110" t="s">
         <v>1070</v>
@@ -36639,7 +36646,7 @@
         <v>1165</v>
       </c>
       <c r="C28" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D28" s="110" t="s">
         <v>1070</v>
@@ -36659,7 +36666,7 @@
         <v>1166</v>
       </c>
       <c r="C29" s="105" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D29" s="110" t="s">
         <v>1070</v>
@@ -37175,7 +37182,7 @@
         <v>1190</v>
       </c>
       <c r="C53" s="105" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D53" s="110" t="s">
         <v>1070</v>
@@ -37199,7 +37206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1c369d34-15d1-4c6b-9890-e182bb57c935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{aae78961-6337-4f10-a40f-ace64c55b9b5}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -37208,19 +37215,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="101.85714285714286" style="12" customWidth="1"/>
-    <col min="2" max="2" width="88.42857142857143" style="12" customWidth="1"/>
-    <col min="3" max="3" width="32" style="12" customWidth="1"/>
-    <col min="4" max="4" width="30.428571428571427" style="12" customWidth="1"/>
-    <col min="5" max="5" width="80.85714285714286" style="12" customWidth="1"/>
-    <col min="6" max="6" width="45.57142857142857" style="12" customWidth="1"/>
-    <col min="7" max="8" width="81.42857142857143" style="12" customWidth="1"/>
-    <col min="9" max="9" width="85.85714285714286" style="12" customWidth="1"/>
-    <col min="10" max="11" width="90.42857142857143" style="12" customWidth="1"/>
-    <col min="12" max="12" width="152.42857142857142" style="12" customWidth="1"/>
-    <col min="13" max="13" width="114" style="12" customWidth="1"/>
-    <col min="14" max="14" width="91.42857142857143" style="12" customWidth="1"/>
-    <col min="15" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="101.85714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="88.42857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="32.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="30.428571428571427" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="80.85714285714286" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="45.57142857142857" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="12" width="81.42857142857143" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="12" width="85.85714285714286" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="12" width="90.42857142857143" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="12" width="152.42857142857142" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="12" width="114.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="12" width="91.42857142857143" collapsed="true"/>
+    <col min="15" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.05">
@@ -38050,26 +38057,26 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c767e6d1-7d3d-49a2-abb2-c23dbdb79fcd}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a0f54272-39a9-4972-a753-2f0bdb858407}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="B73">
+    <sheetView workbookViewId="0" topLeftCell="B13">
       <selection pane="topLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.714285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="13.714285714285714" style="114"/>
-    <col min="2" max="2" width="70.71428571428571" style="114" customWidth="1"/>
-    <col min="3" max="3" width="67.71428571428571" style="114" customWidth="1"/>
-    <col min="4" max="4" width="36.57142857142857" style="114" customWidth="1"/>
-    <col min="5" max="5" width="44.285714285714285" style="114" customWidth="1"/>
-    <col min="6" max="6" width="47.714285714285715" style="114" customWidth="1"/>
-    <col min="7" max="7" width="55.57142857142857" style="114" customWidth="1"/>
-    <col min="8" max="8" width="52.285714285714285" style="114" customWidth="1"/>
-    <col min="9" max="9" width="38" style="114" customWidth="1"/>
-    <col min="10" max="10" width="30.571428571428573" style="114" customWidth="1"/>
-    <col min="11" max="16384" width="13.714285714285714" style="114"/>
+    <col min="1" max="1" style="114" width="13.714285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="114" width="70.71428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="114" width="67.71428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="114" width="36.57142857142857" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="114" width="44.285714285714285" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="114" width="47.714285714285715" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="114" width="55.57142857142857" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="114" width="52.285714285714285" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="114" width="38.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="114" width="30.571428571428573" collapsed="true"/>
+    <col min="11" max="16384" style="114" width="13.714285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="112" customFormat="1" ht="14.05">
@@ -38108,10 +38115,10 @@
       <c r="A2" s="113">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>1191</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>180</v>
       </c>
       <c r="D2" s="110" t="s">
@@ -38131,10 +38138,10 @@
       <c r="A3" s="113">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>1192</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>180</v>
       </c>
       <c r="D3" s="110" t="s">
@@ -38145,10 +38152,10 @@
       <c r="A4" s="113">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>1193</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>180</v>
       </c>
       <c r="D4" s="110" t="s">
@@ -38159,10 +38166,10 @@
       <c r="A5" s="113">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>1194</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>180</v>
       </c>
       <c r="D5" s="110" t="s">
@@ -38173,10 +38180,10 @@
       <c r="A6" s="113">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>1195</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>187</v>
       </c>
       <c r="D6" s="110" t="s">
@@ -38196,10 +38203,10 @@
       <c r="A7" s="113">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>1196</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>187</v>
       </c>
       <c r="D7" s="110" t="s">
@@ -38210,10 +38217,10 @@
       <c r="A8" s="113">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>1197</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="37" t="s">
         <v>187</v>
       </c>
       <c r="D8" s="110" t="s">
@@ -38224,10 +38231,10 @@
       <c r="A9" s="113">
         <v>8</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="37" t="s">
         <v>1198</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>187</v>
       </c>
       <c r="D9" s="110" t="s">
@@ -38238,11 +38245,11 @@
       <c r="A10" s="113">
         <v>9</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>1199</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>242</v>
+      <c r="C10" s="37" t="s">
+        <v>243</v>
       </c>
       <c r="D10" s="110" t="s">
         <v>1070</v>
@@ -38261,11 +38268,11 @@
       <c r="A11" s="113">
         <v>10</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="37" t="s">
         <v>1200</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>242</v>
+      <c r="C11" s="37" t="s">
+        <v>243</v>
       </c>
       <c r="D11" s="110" t="s">
         <v>1070</v>
@@ -38275,11 +38282,11 @@
       <c r="A12" s="113">
         <v>11</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>1201</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>242</v>
+      <c r="C12" s="37" t="s">
+        <v>243</v>
       </c>
       <c r="D12" s="110" t="s">
         <v>1070</v>
@@ -38289,11 +38296,11 @@
       <c r="A13" s="113">
         <v>12</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>1202</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>242</v>
+      <c r="C13" s="37" t="s">
+        <v>243</v>
       </c>
       <c r="D13" s="110" t="s">
         <v>1070</v>
@@ -38303,11 +38310,11 @@
       <c r="A14" s="113">
         <v>13</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>1203</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>282</v>
+      <c r="C14" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="D14" s="110" t="s">
         <v>1070</v>
@@ -38326,11 +38333,11 @@
       <c r="A15" s="113">
         <v>14</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>1204</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>282</v>
+      <c r="C15" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="D15" s="110" t="s">
         <v>1070</v>
@@ -38340,11 +38347,11 @@
       <c r="A16" s="113">
         <v>15</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>1205</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>282</v>
+      <c r="C16" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="D16" s="110" t="s">
         <v>1070</v>
@@ -38354,11 +38361,11 @@
       <c r="A17" s="113">
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>1206</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>282</v>
+      <c r="C17" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="D17" s="110" t="s">
         <v>1070</v>
@@ -38368,11 +38375,11 @@
       <c r="A18" s="113">
         <v>17</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="37" t="s">
         <v>1207</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>311</v>
+      <c r="C18" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D18" s="110" t="s">
         <v>1070</v>
@@ -38391,11 +38398,11 @@
       <c r="A19" s="113">
         <v>18</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="37" t="s">
         <v>1208</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>311</v>
+      <c r="C19" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D19" s="110" t="s">
         <v>1070</v>
@@ -38405,11 +38412,11 @@
       <c r="A20" s="113">
         <v>19</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="37" t="s">
         <v>1209</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>311</v>
+      <c r="C20" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D20" s="110" t="s">
         <v>1070</v>
@@ -38419,11 +38426,11 @@
       <c r="A21" s="113">
         <v>20</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="37" t="s">
         <v>1210</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>311</v>
+      <c r="C21" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D21" s="110" t="s">
         <v>1070</v>
@@ -38433,11 +38440,11 @@
       <c r="A22" s="113">
         <v>21</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>357</v>
+      <c r="C22" s="37" t="s">
+        <v>358</v>
       </c>
       <c r="D22" s="110" t="s">
         <v>1070</v>
@@ -38456,11 +38463,11 @@
       <c r="A23" s="113">
         <v>22</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="37" t="s">
         <v>1211</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>357</v>
+      <c r="C23" s="37" t="s">
+        <v>358</v>
       </c>
       <c r="D23" s="110" t="s">
         <v>1070</v>
@@ -38470,11 +38477,11 @@
       <c r="A24" s="113">
         <v>23</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="37" t="s">
         <v>1212</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>357</v>
+      <c r="C24" s="37" t="s">
+        <v>358</v>
       </c>
       <c r="D24" s="110" t="s">
         <v>1070</v>
@@ -38484,11 +38491,11 @@
       <c r="A25" s="113">
         <v>24</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="37" t="s">
         <v>1213</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>357</v>
+      <c r="C25" s="37" t="s">
+        <v>358</v>
       </c>
       <c r="D25" s="110" t="s">
         <v>1070</v>
@@ -38498,11 +38505,11 @@
       <c r="A26" s="113">
         <v>25</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="37" t="s">
         <v>1214</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>311</v>
+      <c r="C26" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D26" s="110" t="s">
         <v>1070</v>
@@ -38521,11 +38528,11 @@
       <c r="A27" s="113">
         <v>26</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="37" t="s">
         <v>1215</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>311</v>
+      <c r="C27" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D27" s="110" t="s">
         <v>1070</v>
@@ -38535,11 +38542,11 @@
       <c r="A28" s="113">
         <v>27</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="37" t="s">
         <v>1216</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>311</v>
+      <c r="C28" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D28" s="110" t="s">
         <v>1070</v>
@@ -38549,11 +38556,11 @@
       <c r="A29" s="113">
         <v>28</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="37" t="s">
         <v>1217</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>311</v>
+      <c r="C29" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D29" s="110" t="s">
         <v>1070</v>
@@ -38563,11 +38570,11 @@
       <c r="A30" s="113">
         <v>29</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="37" t="s">
         <v>1218</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>358</v>
+      <c r="C30" s="37" t="s">
+        <v>359</v>
       </c>
       <c r="D30" s="110" t="s">
         <v>1070</v>
@@ -38586,11 +38593,11 @@
       <c r="A31" s="113">
         <v>30</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="37" t="s">
         <v>1219</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>358</v>
+      <c r="C31" s="37" t="s">
+        <v>359</v>
       </c>
       <c r="D31" s="110" t="s">
         <v>1070</v>
@@ -38600,11 +38607,11 @@
       <c r="A32" s="113">
         <v>31</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="37" t="s">
         <v>1220</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>358</v>
+      <c r="C32" s="37" t="s">
+        <v>359</v>
       </c>
       <c r="D32" s="110" t="s">
         <v>1070</v>
@@ -38614,11 +38621,11 @@
       <c r="A33" s="113">
         <v>32</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="37" t="s">
         <v>1221</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>358</v>
+      <c r="C33" s="37" t="s">
+        <v>359</v>
       </c>
       <c r="D33" s="110" t="s">
         <v>1070</v>
@@ -38628,10 +38635,10 @@
       <c r="A34" s="113">
         <v>33</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="37" t="s">
         <v>459</v>
       </c>
       <c r="D34" s="110" t="s">
@@ -38651,10 +38658,10 @@
       <c r="A35" s="113">
         <v>34</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="37" t="s">
         <v>1222</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="37" t="s">
         <v>459</v>
       </c>
       <c r="D35" s="110" t="s">
@@ -38665,10 +38672,10 @@
       <c r="A36" s="113">
         <v>35</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="37" t="s">
         <v>1223</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="37" t="s">
         <v>459</v>
       </c>
       <c r="D36" s="110" t="s">
@@ -38679,10 +38686,10 @@
       <c r="A37" s="113">
         <v>36</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="37" t="s">
         <v>1224</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="37" t="s">
         <v>459</v>
       </c>
       <c r="D37" s="110" t="s">
@@ -38693,11 +38700,11 @@
       <c r="A38" s="113">
         <v>37</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="37" t="s">
         <v>1225</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>311</v>
+      <c r="C38" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D38" s="110" t="s">
         <v>1070</v>
@@ -38716,11 +38723,11 @@
       <c r="A39" s="113">
         <v>38</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="37" t="s">
         <v>1226</v>
       </c>
-      <c r="C39" s="36" t="s">
-        <v>311</v>
+      <c r="C39" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D39" s="110" t="s">
         <v>1070</v>
@@ -38730,11 +38737,11 @@
       <c r="A40" s="113">
         <v>39</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="37" t="s">
         <v>1227</v>
       </c>
-      <c r="C40" s="36" t="s">
-        <v>311</v>
+      <c r="C40" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D40" s="110" t="s">
         <v>1070</v>
@@ -38744,11 +38751,11 @@
       <c r="A41" s="113">
         <v>40</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="37" t="s">
         <v>1228</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>311</v>
+      <c r="C41" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D41" s="110" t="s">
         <v>1070</v>
@@ -38758,11 +38765,11 @@
       <c r="A42" s="113">
         <v>41</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="37" t="s">
         <v>1229</v>
       </c>
-      <c r="C42" s="36" t="s">
-        <v>358</v>
+      <c r="C42" s="37" t="s">
+        <v>359</v>
       </c>
       <c r="D42" s="110" t="s">
         <v>1070</v>
@@ -38781,11 +38788,11 @@
       <c r="A43" s="113">
         <v>42</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="37" t="s">
         <v>1230</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>358</v>
+      <c r="C43" s="37" t="s">
+        <v>359</v>
       </c>
       <c r="D43" s="110" t="s">
         <v>1070</v>
@@ -38795,11 +38802,11 @@
       <c r="A44" s="113">
         <v>43</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="37" t="s">
         <v>1231</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>358</v>
+      <c r="C44" s="37" t="s">
+        <v>359</v>
       </c>
       <c r="D44" s="110" t="s">
         <v>1070</v>
@@ -38809,11 +38816,11 @@
       <c r="A45" s="113">
         <v>44</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="37" t="s">
         <v>1232</v>
       </c>
-      <c r="C45" s="36" t="s">
-        <v>358</v>
+      <c r="C45" s="37" t="s">
+        <v>359</v>
       </c>
       <c r="D45" s="110" t="s">
         <v>1070</v>
@@ -38823,10 +38830,10 @@
       <c r="A46" s="113">
         <v>45</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="37" t="s">
         <v>1233</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="37" t="s">
         <v>493</v>
       </c>
       <c r="D46" s="110" t="s">
@@ -38846,10 +38853,10 @@
       <c r="A47" s="113">
         <v>46</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="37" t="s">
         <v>1234</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="37" t="s">
         <v>493</v>
       </c>
       <c r="D47" s="110" t="s">
@@ -38860,10 +38867,10 @@
       <c r="A48" s="113">
         <v>47</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="37" t="s">
         <v>1235</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="37" t="s">
         <v>493</v>
       </c>
       <c r="D48" s="110" t="s">
@@ -38874,10 +38881,10 @@
       <c r="A49" s="113">
         <v>48</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="37" t="s">
         <v>1236</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="37" t="s">
         <v>493</v>
       </c>
       <c r="D49" s="110" t="s">
@@ -38888,10 +38895,10 @@
       <c r="A50" s="113">
         <v>49</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="37" t="s">
         <v>566</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="37" t="s">
         <v>495</v>
       </c>
       <c r="D50" s="110" t="s">
@@ -38911,10 +38918,10 @@
       <c r="A51" s="113">
         <v>50</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="37" t="s">
         <v>1237</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="37" t="s">
         <v>495</v>
       </c>
       <c r="D51" s="110" t="s">
@@ -38925,10 +38932,10 @@
       <c r="A52" s="113">
         <v>51</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="37" t="s">
         <v>1238</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="37" t="s">
         <v>495</v>
       </c>
       <c r="D52" s="110" t="s">
@@ -38939,10 +38946,10 @@
       <c r="A53" s="113">
         <v>52</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="37" t="s">
         <v>1239</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="37" t="s">
         <v>495</v>
       </c>
       <c r="D53" s="110" t="s">
@@ -38953,11 +38960,11 @@
       <c r="A54" s="113">
         <v>53</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="37" t="s">
         <v>1240</v>
       </c>
-      <c r="C54" s="36" t="s">
-        <v>311</v>
+      <c r="C54" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D54" s="110" t="s">
         <v>1070</v>
@@ -38976,11 +38983,11 @@
       <c r="A55" s="113">
         <v>54</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="37" t="s">
         <v>1241</v>
       </c>
-      <c r="C55" s="36" t="s">
-        <v>311</v>
+      <c r="C55" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D55" s="110" t="s">
         <v>1070</v>
@@ -38990,11 +38997,11 @@
       <c r="A56" s="113">
         <v>55</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="37" t="s">
         <v>1242</v>
       </c>
-      <c r="C56" s="36" t="s">
-        <v>311</v>
+      <c r="C56" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D56" s="110" t="s">
         <v>1070</v>
@@ -39004,11 +39011,11 @@
       <c r="A57" s="113">
         <v>56</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="37" t="s">
         <v>1243</v>
       </c>
-      <c r="C57" s="36" t="s">
-        <v>311</v>
+      <c r="C57" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D57" s="110" t="s">
         <v>1070</v>
@@ -39018,11 +39025,11 @@
       <c r="A58" s="113">
         <v>57</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="37" t="s">
         <v>1244</v>
       </c>
-      <c r="C58" s="36" t="s">
-        <v>359</v>
+      <c r="C58" s="37" t="s">
+        <v>360</v>
       </c>
       <c r="D58" s="110" t="s">
         <v>1070</v>
@@ -39041,11 +39048,11 @@
       <c r="A59" s="113">
         <v>58</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="37" t="s">
         <v>1245</v>
       </c>
-      <c r="C59" s="36" t="s">
-        <v>359</v>
+      <c r="C59" s="37" t="s">
+        <v>360</v>
       </c>
       <c r="D59" s="110" t="s">
         <v>1070</v>
@@ -39055,11 +39062,11 @@
       <c r="A60" s="113">
         <v>59</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="37" t="s">
         <v>1246</v>
       </c>
-      <c r="C60" s="36" t="s">
-        <v>359</v>
+      <c r="C60" s="37" t="s">
+        <v>360</v>
       </c>
       <c r="D60" s="110" t="s">
         <v>1070</v>
@@ -39069,11 +39076,11 @@
       <c r="A61" s="113">
         <v>60</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="37" t="s">
         <v>1247</v>
       </c>
-      <c r="C61" s="36" t="s">
-        <v>359</v>
+      <c r="C61" s="37" t="s">
+        <v>360</v>
       </c>
       <c r="D61" s="110" t="s">
         <v>1070</v>
@@ -39083,10 +39090,10 @@
       <c r="A62" s="113">
         <v>61</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="37" t="s">
         <v>569</v>
       </c>
       <c r="D62" s="110" t="s">
@@ -39106,10 +39113,10 @@
       <c r="A63" s="113">
         <v>62</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="37" t="s">
         <v>1248</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="37" t="s">
         <v>569</v>
       </c>
       <c r="D63" s="110" t="s">
@@ -39120,10 +39127,10 @@
       <c r="A64" s="113">
         <v>63</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="37" t="s">
         <v>1249</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="37" t="s">
         <v>569</v>
       </c>
       <c r="D64" s="110" t="s">
@@ -39134,10 +39141,10 @@
       <c r="A65" s="113">
         <v>64</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="37" t="s">
         <v>1250</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="37" t="s">
         <v>569</v>
       </c>
       <c r="D65" s="110" t="s">
@@ -39148,11 +39155,11 @@
       <c r="A66" s="113">
         <v>65</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="37" t="s">
         <v>1251</v>
       </c>
-      <c r="C66" s="36" t="s">
-        <v>311</v>
+      <c r="C66" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D66" s="110" t="s">
         <v>1070</v>
@@ -39171,11 +39178,11 @@
       <c r="A67" s="113">
         <v>66</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="37" t="s">
         <v>1252</v>
       </c>
-      <c r="C67" s="36" t="s">
-        <v>311</v>
+      <c r="C67" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D67" s="110" t="s">
         <v>1070</v>
@@ -39185,11 +39192,11 @@
       <c r="A68" s="113">
         <v>67</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="37" t="s">
         <v>1253</v>
       </c>
-      <c r="C68" s="36" t="s">
-        <v>311</v>
+      <c r="C68" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D68" s="110" t="s">
         <v>1070</v>
@@ -39199,11 +39206,11 @@
       <c r="A69" s="113">
         <v>68</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="37" t="s">
         <v>1254</v>
       </c>
-      <c r="C69" s="36" t="s">
-        <v>311</v>
+      <c r="C69" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D69" s="110" t="s">
         <v>1070</v>
@@ -39213,11 +39220,11 @@
       <c r="A70" s="113">
         <v>69</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="37" t="s">
         <v>1255</v>
       </c>
-      <c r="C70" s="36" t="s">
-        <v>360</v>
+      <c r="C70" s="37" t="s">
+        <v>361</v>
       </c>
       <c r="D70" s="110" t="s">
         <v>1070</v>
@@ -39236,11 +39243,11 @@
       <c r="A71" s="113">
         <v>70</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="37" t="s">
         <v>1256</v>
       </c>
-      <c r="C71" s="36" t="s">
-        <v>360</v>
+      <c r="C71" s="37" t="s">
+        <v>361</v>
       </c>
       <c r="D71" s="110" t="s">
         <v>1070</v>
@@ -39250,11 +39257,11 @@
       <c r="A72" s="113">
         <v>71</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="37" t="s">
         <v>1257</v>
       </c>
-      <c r="C72" s="36" t="s">
-        <v>360</v>
+      <c r="C72" s="37" t="s">
+        <v>361</v>
       </c>
       <c r="D72" s="110" t="s">
         <v>1070</v>
@@ -39264,11 +39271,11 @@
       <c r="A73" s="113">
         <v>72</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="37" t="s">
         <v>1258</v>
       </c>
-      <c r="C73" s="36" t="s">
-        <v>360</v>
+      <c r="C73" s="37" t="s">
+        <v>361</v>
       </c>
       <c r="D73" s="110" t="s">
         <v>1070</v>
@@ -39278,10 +39285,10 @@
       <c r="A74" s="113">
         <v>73</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="37" t="s">
         <v>573</v>
       </c>
       <c r="D74" s="110" t="s">
@@ -39301,10 +39308,10 @@
       <c r="A75" s="113">
         <v>74</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="37" t="s">
         <v>1259</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="37" t="s">
         <v>573</v>
       </c>
       <c r="D75" s="110" t="s">
@@ -39315,10 +39322,10 @@
       <c r="A76" s="113">
         <v>75</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="37" t="s">
         <v>1260</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="37" t="s">
         <v>573</v>
       </c>
       <c r="D76" s="110" t="s">
@@ -39329,10 +39336,10 @@
       <c r="A77" s="113">
         <v>76</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="37" t="s">
         <v>1261</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="37" t="s">
         <v>573</v>
       </c>
       <c r="D77" s="110" t="s">
@@ -39343,11 +39350,11 @@
       <c r="A78" s="113">
         <v>77</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="37" t="s">
         <v>1262</v>
       </c>
-      <c r="C78" s="36" t="s">
-        <v>311</v>
+      <c r="C78" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D78" s="110" t="s">
         <v>1070</v>
@@ -39369,11 +39376,11 @@
       <c r="A79" s="113">
         <v>78</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="37" t="s">
         <v>1263</v>
       </c>
-      <c r="C79" s="36" t="s">
-        <v>311</v>
+      <c r="C79" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D79" s="110" t="s">
         <v>1070</v>
@@ -39383,11 +39390,11 @@
       <c r="A80" s="113">
         <v>79</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="37" t="s">
         <v>1264</v>
       </c>
-      <c r="C80" s="36" t="s">
-        <v>311</v>
+      <c r="C80" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D80" s="110" t="s">
         <v>1070</v>
@@ -39397,11 +39404,11 @@
       <c r="A81" s="113">
         <v>80</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="37" t="s">
         <v>1265</v>
       </c>
-      <c r="C81" s="36" t="s">
-        <v>311</v>
+      <c r="C81" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D81" s="110" t="s">
         <v>1070</v>
@@ -39411,11 +39418,11 @@
       <c r="A82" s="113">
         <v>81</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="37" t="s">
         <v>1266</v>
       </c>
-      <c r="C82" s="36" t="s">
-        <v>361</v>
+      <c r="C82" s="37" t="s">
+        <v>362</v>
       </c>
       <c r="D82" s="110" t="s">
         <v>1070</v>
@@ -39425,10 +39432,10 @@
       <c r="A83" s="113">
         <v>82</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="37" t="s">
         <v>577</v>
       </c>
       <c r="D83" s="110" t="s">
@@ -39448,10 +39455,10 @@
       <c r="A84" s="113">
         <v>83</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="37" t="s">
         <v>1267</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="37" t="s">
         <v>577</v>
       </c>
       <c r="D84" s="110" t="s">
@@ -39462,10 +39469,10 @@
       <c r="A85" s="113">
         <v>84</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="37" t="s">
         <v>1268</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="37" t="s">
         <v>577</v>
       </c>
       <c r="D85" s="110" t="s">
@@ -39476,10 +39483,10 @@
       <c r="A86" s="113">
         <v>85</v>
       </c>
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="37" t="s">
         <v>1269</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="37" t="s">
         <v>577</v>
       </c>
       <c r="D86" s="110" t="s">
@@ -39490,11 +39497,11 @@
       <c r="A87" s="113">
         <v>86</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="37" t="s">
         <v>1270</v>
       </c>
-      <c r="C87" s="36" t="s">
-        <v>311</v>
+      <c r="C87" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D87" s="110" t="s">
         <v>1070</v>
@@ -39516,11 +39523,11 @@
       <c r="A88" s="113">
         <v>87</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="37" t="s">
         <v>1271</v>
       </c>
-      <c r="C88" s="36" t="s">
-        <v>311</v>
+      <c r="C88" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D88" s="110" t="s">
         <v>1070</v>
@@ -39530,11 +39537,11 @@
       <c r="A89" s="113">
         <v>88</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="37" t="s">
         <v>1272</v>
       </c>
-      <c r="C89" s="36" t="s">
-        <v>311</v>
+      <c r="C89" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D89" s="110" t="s">
         <v>1070</v>
@@ -39544,11 +39551,11 @@
       <c r="A90" s="113">
         <v>89</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="37" t="s">
         <v>1273</v>
       </c>
-      <c r="C90" s="36" t="s">
-        <v>311</v>
+      <c r="C90" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D90" s="110" t="s">
         <v>1070</v>
@@ -39558,11 +39565,11 @@
       <c r="A91" s="113">
         <v>90</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="37" t="s">
         <v>1274</v>
       </c>
-      <c r="C91" s="36" t="s">
-        <v>362</v>
+      <c r="C91" s="37" t="s">
+        <v>363</v>
       </c>
       <c r="D91" s="110" t="s">
         <v>1070</v>
@@ -39572,10 +39579,10 @@
       <c r="A92" s="113">
         <v>91</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="37" t="s">
         <v>581</v>
       </c>
       <c r="D92" s="110" t="s">
@@ -39595,10 +39602,10 @@
       <c r="A93" s="113">
         <v>92</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="37" t="s">
         <v>1275</v>
       </c>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="37" t="s">
         <v>581</v>
       </c>
       <c r="D93" s="110" t="s">
@@ -39609,10 +39616,10 @@
       <c r="A94" s="113">
         <v>93</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="37" t="s">
         <v>1276</v>
       </c>
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="37" t="s">
         <v>581</v>
       </c>
       <c r="D94" s="110" t="s">
@@ -39623,10 +39630,10 @@
       <c r="A95" s="113">
         <v>94</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="37" t="s">
         <v>1277</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C95" s="37" t="s">
         <v>581</v>
       </c>
       <c r="D95" s="110" t="s">
@@ -39637,11 +39644,11 @@
       <c r="A96" s="113">
         <v>95</v>
       </c>
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="37" t="s">
         <v>1278</v>
       </c>
-      <c r="C96" s="36" t="s">
-        <v>311</v>
+      <c r="C96" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D96" s="110" t="s">
         <v>1070</v>
@@ -39660,11 +39667,11 @@
       <c r="A97" s="113">
         <v>96</v>
       </c>
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="37" t="s">
         <v>1279</v>
       </c>
-      <c r="C97" s="36" t="s">
-        <v>311</v>
+      <c r="C97" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D97" s="110" t="s">
         <v>1070</v>
@@ -39674,11 +39681,11 @@
       <c r="A98" s="113">
         <v>97</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="37" t="s">
         <v>1280</v>
       </c>
-      <c r="C98" s="36" t="s">
-        <v>311</v>
+      <c r="C98" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D98" s="110" t="s">
         <v>1070</v>
@@ -39688,11 +39695,11 @@
       <c r="A99" s="113">
         <v>98</v>
       </c>
-      <c r="B99" s="36" t="s">
+      <c r="B99" s="37" t="s">
         <v>1281</v>
       </c>
-      <c r="C99" s="36" t="s">
-        <v>311</v>
+      <c r="C99" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D99" s="110" t="s">
         <v>1070</v>
@@ -39702,11 +39709,11 @@
       <c r="A100" s="113">
         <v>99</v>
       </c>
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="C100" s="36" t="s">
-        <v>363</v>
+      <c r="C100" s="37" t="s">
+        <v>364</v>
       </c>
       <c r="D100" s="110" t="s">
         <v>1070</v>
@@ -39716,10 +39723,10 @@
       <c r="A101" s="113">
         <v>100</v>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="37" t="s">
         <v>422</v>
       </c>
       <c r="D101" s="110" t="s">
@@ -39739,10 +39746,10 @@
       <c r="A102" s="113">
         <v>101</v>
       </c>
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="37" t="s">
         <v>1282</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="37" t="s">
         <v>422</v>
       </c>
       <c r="D102" s="110" t="s">
@@ -39753,10 +39760,10 @@
       <c r="A103" s="113">
         <v>102</v>
       </c>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="37" t="s">
         <v>1283</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="37" t="s">
         <v>422</v>
       </c>
       <c r="D103" s="110" t="s">
@@ -39767,10 +39774,10 @@
       <c r="A104" s="113">
         <v>103</v>
       </c>
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="37" t="s">
         <v>1284</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="37" t="s">
         <v>422</v>
       </c>
       <c r="D104" s="110" t="s">
@@ -39781,11 +39788,11 @@
       <c r="A105" s="113">
         <v>104</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="37" t="s">
         <v>1285</v>
       </c>
-      <c r="C105" s="36" t="s">
-        <v>311</v>
+      <c r="C105" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D105" s="110" t="s">
         <v>1070</v>
@@ -39804,11 +39811,11 @@
       <c r="A106" s="113">
         <v>105</v>
       </c>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="37" t="s">
         <v>1286</v>
       </c>
-      <c r="C106" s="36" t="s">
-        <v>311</v>
+      <c r="C106" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D106" s="110" t="s">
         <v>1070</v>
@@ -39818,11 +39825,11 @@
       <c r="A107" s="113">
         <v>106</v>
       </c>
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="37" t="s">
         <v>1287</v>
       </c>
-      <c r="C107" s="36" t="s">
-        <v>311</v>
+      <c r="C107" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D107" s="110" t="s">
         <v>1070</v>
@@ -39832,11 +39839,11 @@
       <c r="A108" s="113">
         <v>107</v>
       </c>
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="37" t="s">
         <v>1288</v>
       </c>
-      <c r="C108" s="36" t="s">
-        <v>311</v>
+      <c r="C108" s="37" t="s">
+        <v>312</v>
       </c>
       <c r="D108" s="110" t="s">
         <v>1070</v>
@@ -39846,11 +39853,11 @@
       <c r="A109" s="113">
         <v>108</v>
       </c>
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="37" t="s">
         <v>751</v>
       </c>
-      <c r="C109" s="36" t="s">
-        <v>364</v>
+      <c r="C109" s="37" t="s">
+        <v>365</v>
       </c>
       <c r="D109" s="110" t="s">
         <v>1070</v>
@@ -39860,10 +39867,10 @@
       <c r="A110" s="113">
         <v>109</v>
       </c>
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="37" t="s">
         <v>585</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="37" t="s">
         <v>586</v>
       </c>
       <c r="D110" s="110" t="s">
@@ -39883,10 +39890,10 @@
       <c r="A111" s="113">
         <v>110</v>
       </c>
-      <c r="B111" s="36" t="s">
+      <c r="B111" s="37" t="s">
         <v>1289</v>
       </c>
-      <c r="C111" s="36" t="s">
+      <c r="C111" s="37" t="s">
         <v>586</v>
       </c>
       <c r="D111" s="110" t="s">
@@ -39897,10 +39904,10 @@
       <c r="A112" s="113">
         <v>111</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="37" t="s">
         <v>1290</v>
       </c>
-      <c r="C112" s="36" t="s">
+      <c r="C112" s="37" t="s">
         <v>586</v>
       </c>
       <c r="D112" s="110" t="s">
@@ -39911,10 +39918,10 @@
       <c r="A113" s="113">
         <v>112</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="37" t="s">
         <v>1291</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="37" t="s">
         <v>586</v>
       </c>
       <c r="D113" s="110" t="s">
@@ -39925,7 +39932,7 @@
       <c r="A114" s="113">
         <v>113</v>
       </c>
-      <c r="B114" s="36" t="s">
+      <c r="B114" s="37" t="s">
         <v>1292</v>
       </c>
       <c r="C114" s="115"/>
@@ -39949,26 +39956,26 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0d78811d-5eb2-4159-b419-c047e47a539e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e8fb6ea3-c111-4dd4-ae14-8b9abdf59184}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A88">
-      <selection pane="topLeft" activeCell="C109" sqref="C109"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.004285714285713" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="12.714285714285714" style="114" customWidth="1"/>
-    <col min="2" max="2" width="77.42857142857143" style="114" customWidth="1"/>
-    <col min="3" max="3" width="44.142857142857146" style="114" customWidth="1"/>
-    <col min="4" max="4" width="28.285714285714285" style="114" customWidth="1"/>
-    <col min="5" max="5" width="43.142857142857146" style="114" customWidth="1"/>
-    <col min="6" max="6" width="49.42857142857143" style="114" customWidth="1"/>
-    <col min="7" max="7" width="59.142857142857146" style="114" customWidth="1"/>
-    <col min="8" max="8" width="37.57142857142857" style="114" customWidth="1"/>
-    <col min="9" max="9" width="50.857142857142854" style="114" customWidth="1"/>
-    <col min="10" max="10" width="32" style="114" customWidth="1"/>
-    <col min="11" max="16384" width="13" style="114"/>
+    <col min="1" max="1" customWidth="true" style="114" width="12.714285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="114" width="77.42857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="114" width="44.142857142857146" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="114" width="28.285714285714285" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="114" width="43.142857142857146" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="114" width="49.42857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="114" width="59.142857142857146" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="114" width="37.57142857142857" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="114" width="50.857142857142854" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="114" width="32.0" collapsed="true"/>
+    <col min="11" max="16384" style="114" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.05">
@@ -40007,10 +40014,10 @@
       <c r="A2" s="116">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>1293</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D2" s="110" t="s">
@@ -40030,10 +40037,10 @@
       <c r="A3" s="116">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>1294</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D3" s="110" t="s">
@@ -40044,10 +40051,10 @@
       <c r="A4" s="116">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>1295</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D4" s="110" t="s">
@@ -40058,10 +40065,10 @@
       <c r="A5" s="116">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>1296</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D5" s="110" t="s">
@@ -40072,11 +40079,11 @@
       <c r="A6" s="116">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>1297</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>253</v>
+      <c r="C6" s="37" t="s">
+        <v>209</v>
       </c>
       <c r="D6" s="110" t="s">
         <v>1070</v>
@@ -40095,11 +40102,11 @@
       <c r="A7" s="116">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>1298</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>253</v>
+      <c r="C7" s="37" t="s">
+        <v>209</v>
       </c>
       <c r="D7" s="110" t="s">
         <v>1070</v>
@@ -40109,11 +40116,11 @@
       <c r="A8" s="116">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>1299</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>253</v>
+      <c r="C8" s="37" t="s">
+        <v>209</v>
       </c>
       <c r="D8" s="110" t="s">
         <v>1070</v>
@@ -40123,11 +40130,11 @@
       <c r="A9" s="116">
         <v>8</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="37" t="s">
         <v>1300</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>253</v>
+      <c r="C9" s="37" t="s">
+        <v>209</v>
       </c>
       <c r="D9" s="110" t="s">
         <v>1070</v>
@@ -40137,11 +40144,11 @@
       <c r="A10" s="116">
         <v>9</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>1301</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>292</v>
+      <c r="C10" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D10" s="110" t="s">
         <v>1070</v>
@@ -40160,11 +40167,11 @@
       <c r="A11" s="116">
         <v>10</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="37" t="s">
         <v>1302</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>292</v>
+      <c r="C11" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D11" s="110" t="s">
         <v>1070</v>
@@ -40174,11 +40181,11 @@
       <c r="A12" s="116">
         <v>11</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>1303</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>292</v>
+      <c r="C12" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D12" s="110" t="s">
         <v>1070</v>
@@ -40188,11 +40195,11 @@
       <c r="A13" s="116">
         <v>12</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>1304</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>292</v>
+      <c r="C13" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D13" s="110" t="s">
         <v>1070</v>
@@ -40202,11 +40209,11 @@
       <c r="A14" s="116">
         <v>13</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>1305</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>315</v>
+      <c r="C14" s="37" t="s">
+        <v>295</v>
       </c>
       <c r="D14" s="110" t="s">
         <v>1070</v>
@@ -40225,11 +40232,11 @@
       <c r="A15" s="116">
         <v>14</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>1306</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>315</v>
+      <c r="C15" s="37" t="s">
+        <v>295</v>
       </c>
       <c r="D15" s="110" t="s">
         <v>1070</v>
@@ -40239,11 +40246,11 @@
       <c r="A16" s="116">
         <v>15</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>1307</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>315</v>
+      <c r="C16" s="37" t="s">
+        <v>295</v>
       </c>
       <c r="D16" s="110" t="s">
         <v>1070</v>
@@ -40253,11 +40260,11 @@
       <c r="A17" s="116">
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>1308</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>315</v>
+      <c r="C17" s="37" t="s">
+        <v>295</v>
       </c>
       <c r="D17" s="110" t="s">
         <v>1070</v>
@@ -40267,11 +40274,11 @@
       <c r="A18" s="116">
         <v>17</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="37" t="s">
         <v>1309</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>377</v>
+      <c r="C18" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D18" s="110" t="s">
         <v>1070</v>
@@ -40290,11 +40297,11 @@
       <c r="A19" s="116">
         <v>18</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="37" t="s">
         <v>1310</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>377</v>
+      <c r="C19" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D19" s="110" t="s">
         <v>1070</v>
@@ -40304,11 +40311,11 @@
       <c r="A20" s="116">
         <v>19</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="37" t="s">
         <v>1311</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>377</v>
+      <c r="C20" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D20" s="110" t="s">
         <v>1070</v>
@@ -40318,11 +40325,11 @@
       <c r="A21" s="116">
         <v>20</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="37" t="s">
         <v>1312</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>377</v>
+      <c r="C21" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D21" s="110" t="s">
         <v>1070</v>
@@ -40332,10 +40339,10 @@
       <c r="A22" s="116">
         <v>21</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="37" t="s">
         <v>659</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>660</v>
       </c>
       <c r="D22" s="110" t="s">
@@ -40355,10 +40362,10 @@
       <c r="A23" s="116">
         <v>22</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="37" t="s">
         <v>688</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="37" t="s">
         <v>660</v>
       </c>
       <c r="D23" s="110" t="s">
@@ -40369,10 +40376,10 @@
       <c r="A24" s="116">
         <v>23</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="37" t="s">
         <v>690</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>660</v>
       </c>
       <c r="D24" s="110" t="s">
@@ -40383,10 +40390,10 @@
       <c r="A25" s="116">
         <v>24</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="37" t="s">
         <v>660</v>
       </c>
       <c r="D25" s="110" t="s">
@@ -40397,11 +40404,11 @@
       <c r="A26" s="116">
         <v>25</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="37" t="s">
         <v>1313</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>377</v>
+      <c r="C26" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D26" s="110" t="s">
         <v>1070</v>
@@ -40420,11 +40427,11 @@
       <c r="A27" s="116">
         <v>26</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="37" t="s">
         <v>1314</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>377</v>
+      <c r="C27" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D27" s="110" t="s">
         <v>1070</v>
@@ -40434,11 +40441,11 @@
       <c r="A28" s="116">
         <v>27</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="37" t="s">
         <v>1315</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>377</v>
+      <c r="C28" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D28" s="110" t="s">
         <v>1070</v>
@@ -40448,11 +40455,11 @@
       <c r="A29" s="116">
         <v>28</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="37" t="s">
         <v>1316</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>377</v>
+      <c r="C29" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D29" s="110" t="s">
         <v>1070</v>
@@ -40462,10 +40469,10 @@
       <c r="A30" s="116">
         <v>29</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="37" t="s">
         <v>1317</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="37" t="s">
         <v>381</v>
       </c>
       <c r="D30" s="110" t="s">
@@ -40485,10 +40492,10 @@
       <c r="A31" s="116">
         <v>30</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="37" t="s">
         <v>1318</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="37" t="s">
         <v>381</v>
       </c>
       <c r="D31" s="110" t="s">
@@ -40499,10 +40506,10 @@
       <c r="A32" s="116">
         <v>31</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="37" t="s">
         <v>1319</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="37" t="s">
         <v>381</v>
       </c>
       <c r="D32" s="110" t="s">
@@ -40513,10 +40520,10 @@
       <c r="A33" s="116">
         <v>32</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="37" t="s">
         <v>1320</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="37" t="s">
         <v>381</v>
       </c>
       <c r="D33" s="110" t="s">
@@ -40527,10 +40534,10 @@
       <c r="A34" s="116">
         <v>33</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="37" t="s">
         <v>1321</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="37" t="s">
         <v>498</v>
       </c>
       <c r="D34" s="110" t="s">
@@ -40550,10 +40557,10 @@
       <c r="A35" s="116">
         <v>34</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="37" t="s">
         <v>1322</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="37" t="s">
         <v>498</v>
       </c>
       <c r="D35" s="110" t="s">
@@ -40564,10 +40571,10 @@
       <c r="A36" s="116">
         <v>35</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="37" t="s">
         <v>1323</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="37" t="s">
         <v>498</v>
       </c>
       <c r="D36" s="110" t="s">
@@ -40578,10 +40585,10 @@
       <c r="A37" s="116">
         <v>36</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="37" t="s">
         <v>1324</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="37" t="s">
         <v>498</v>
       </c>
       <c r="D37" s="110" t="s">
@@ -40592,10 +40599,10 @@
       <c r="A38" s="116">
         <v>37</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="37" t="s">
         <v>1325</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="37" t="s">
         <v>500</v>
       </c>
       <c r="D38" s="110" t="s">
@@ -40615,10 +40622,10 @@
       <c r="A39" s="116">
         <v>38</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="37" t="s">
         <v>1326</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="37" t="s">
         <v>500</v>
       </c>
       <c r="D39" s="110" t="s">
@@ -40629,10 +40636,10 @@
       <c r="A40" s="116">
         <v>39</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="37" t="s">
         <v>1327</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="37" t="s">
         <v>500</v>
       </c>
       <c r="D40" s="110" t="s">
@@ -40643,10 +40650,10 @@
       <c r="A41" s="116">
         <v>40</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="37" t="s">
         <v>1328</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="37" t="s">
         <v>500</v>
       </c>
       <c r="D41" s="110" t="s">
@@ -40657,11 +40664,11 @@
       <c r="A42" s="116">
         <v>41</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="37" t="s">
         <v>1329</v>
       </c>
-      <c r="C42" s="36" t="s">
-        <v>377</v>
+      <c r="C42" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D42" s="110" t="s">
         <v>1070</v>
@@ -40680,11 +40687,11 @@
       <c r="A43" s="116">
         <v>42</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="37" t="s">
         <v>1330</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>377</v>
+      <c r="C43" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D43" s="110" t="s">
         <v>1070</v>
@@ -40694,11 +40701,11 @@
       <c r="A44" s="116">
         <v>43</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="37" t="s">
         <v>1331</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>377</v>
+      <c r="C44" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D44" s="110" t="s">
         <v>1070</v>
@@ -40708,11 +40715,11 @@
       <c r="A45" s="116">
         <v>44</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="37" t="s">
         <v>1332</v>
       </c>
-      <c r="C45" s="36" t="s">
-        <v>377</v>
+      <c r="C45" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D45" s="110" t="s">
         <v>1070</v>
@@ -40722,10 +40729,10 @@
       <c r="A46" s="116">
         <v>45</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="37" t="s">
         <v>1333</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="37" t="s">
         <v>660</v>
       </c>
       <c r="D46" s="110" t="s">
@@ -40745,10 +40752,10 @@
       <c r="A47" s="116">
         <v>46</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="37" t="s">
         <v>1334</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="37" t="s">
         <v>660</v>
       </c>
       <c r="D47" s="110" t="s">
@@ -40759,10 +40766,10 @@
       <c r="A48" s="116">
         <v>47</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="37" t="s">
         <v>1335</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="37" t="s">
         <v>660</v>
       </c>
       <c r="D48" s="110" t="s">
@@ -40773,10 +40780,10 @@
       <c r="A49" s="116">
         <v>48</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="37" t="s">
         <v>1336</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="37" t="s">
         <v>660</v>
       </c>
       <c r="D49" s="110" t="s">
@@ -40787,10 +40794,10 @@
       <c r="A50" s="116">
         <v>49</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="37" t="s">
         <v>1337</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="37" t="s">
         <v>669</v>
       </c>
       <c r="D50" s="110" t="s">
@@ -40810,10 +40817,10 @@
       <c r="A51" s="116">
         <v>50</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="37" t="s">
         <v>1338</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="37" t="s">
         <v>669</v>
       </c>
       <c r="D51" s="110" t="s">
@@ -40824,10 +40831,10 @@
       <c r="A52" s="116">
         <v>51</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="37" t="s">
         <v>1339</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="37" t="s">
         <v>669</v>
       </c>
       <c r="D52" s="110" t="s">
@@ -40838,10 +40845,10 @@
       <c r="A53" s="116">
         <v>52</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="37" t="s">
         <v>1340</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="37" t="s">
         <v>669</v>
       </c>
       <c r="D53" s="110" t="s">
@@ -40852,11 +40859,11 @@
       <c r="A54" s="116">
         <v>53</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="37" t="s">
         <v>1341</v>
       </c>
-      <c r="C54" s="36" t="s">
-        <v>377</v>
+      <c r="C54" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D54" s="110" t="s">
         <v>1070</v>
@@ -40875,11 +40882,11 @@
       <c r="A55" s="116">
         <v>54</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="37" t="s">
         <v>1342</v>
       </c>
-      <c r="C55" s="36" t="s">
-        <v>377</v>
+      <c r="C55" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D55" s="110" t="s">
         <v>1070</v>
@@ -40889,11 +40896,11 @@
       <c r="A56" s="116">
         <v>55</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="37" t="s">
         <v>1343</v>
       </c>
-      <c r="C56" s="36" t="s">
-        <v>377</v>
+      <c r="C56" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D56" s="110" t="s">
         <v>1070</v>
@@ -40903,11 +40910,11 @@
       <c r="A57" s="116">
         <v>56</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="37" t="s">
         <v>1344</v>
       </c>
-      <c r="C57" s="36" t="s">
-        <v>377</v>
+      <c r="C57" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D57" s="110" t="s">
         <v>1070</v>
@@ -40917,10 +40924,10 @@
       <c r="A58" s="116">
         <v>57</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="37" t="s">
         <v>1345</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="37" t="s">
         <v>382</v>
       </c>
       <c r="D58" s="110" t="s">
@@ -40935,7 +40942,7 @@
       <c r="G58" s="115" t="s">
         <v>1348</v>
       </c>
-      <c r="H58" s="36" t="s">
+      <c r="H58" s="37" t="s">
         <v>1349</v>
       </c>
     </row>
@@ -40943,10 +40950,10 @@
       <c r="A59" s="116">
         <v>58</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="37" t="s">
         <v>1346</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="37" t="s">
         <v>382</v>
       </c>
       <c r="D59" s="110" t="s">
@@ -40957,10 +40964,10 @@
       <c r="A60" s="116">
         <v>59</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="37" t="s">
         <v>1347</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="37" t="s">
         <v>382</v>
       </c>
       <c r="D60" s="110" t="s">
@@ -40971,10 +40978,10 @@
       <c r="A61" s="116">
         <v>60</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="37" t="s">
         <v>1348</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="37" t="s">
         <v>382</v>
       </c>
       <c r="D61" s="110" t="s">
@@ -40985,10 +40992,10 @@
       <c r="A62" s="116">
         <v>61</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="37" t="s">
         <v>1349</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="37" t="s">
         <v>592</v>
       </c>
       <c r="D62" s="110" t="s">
@@ -40999,11 +41006,11 @@
       <c r="A63" s="116">
         <v>62</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="37" t="s">
         <v>1350</v>
       </c>
-      <c r="C63" s="36" t="s">
-        <v>377</v>
+      <c r="C63" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D63" s="110" t="s">
         <v>1070</v>
@@ -41022,11 +41029,11 @@
       <c r="A64" s="116">
         <v>63</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="37" t="s">
         <v>1351</v>
       </c>
-      <c r="C64" s="36" t="s">
-        <v>377</v>
+      <c r="C64" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D64" s="110" t="s">
         <v>1070</v>
@@ -41036,11 +41043,11 @@
       <c r="A65" s="116">
         <v>64</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="37" t="s">
         <v>1352</v>
       </c>
-      <c r="C65" s="36" t="s">
-        <v>377</v>
+      <c r="C65" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D65" s="110" t="s">
         <v>1070</v>
@@ -41050,11 +41057,11 @@
       <c r="A66" s="116">
         <v>65</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="37" t="s">
         <v>1353</v>
       </c>
-      <c r="C66" s="36" t="s">
-        <v>377</v>
+      <c r="C66" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D66" s="110" t="s">
         <v>1070</v>
@@ -41064,10 +41071,10 @@
       <c r="A67" s="116">
         <v>66</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="37" t="s">
         <v>1354</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="37" t="s">
         <v>383</v>
       </c>
       <c r="D67" s="110" t="s">
@@ -41087,10 +41094,10 @@
       <c r="A68" s="116">
         <v>67</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="37" t="s">
         <v>1355</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="37" t="s">
         <v>383</v>
       </c>
       <c r="D68" s="110" t="s">
@@ -41101,10 +41108,10 @@
       <c r="A69" s="116">
         <v>68</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="37" t="s">
         <v>1356</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="37" t="s">
         <v>383</v>
       </c>
       <c r="D69" s="110" t="s">
@@ -41115,10 +41122,10 @@
       <c r="A70" s="116">
         <v>69</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="37" t="s">
         <v>1357</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="37" t="s">
         <v>383</v>
       </c>
       <c r="D70" s="110" t="s">
@@ -41129,10 +41136,10 @@
       <c r="A71" s="116">
         <v>70</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="37" t="s">
         <v>1358</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="37" t="s">
         <v>646</v>
       </c>
       <c r="D71" s="110" t="s">
@@ -41152,10 +41159,10 @@
       <c r="A72" s="116">
         <v>71</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="37" t="s">
         <v>1359</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="37" t="s">
         <v>646</v>
       </c>
       <c r="D72" s="110" t="s">
@@ -41166,10 +41173,10 @@
       <c r="A73" s="116">
         <v>72</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="37" t="s">
         <v>1360</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="37" t="s">
         <v>646</v>
       </c>
       <c r="D73" s="110" t="s">
@@ -41180,10 +41187,10 @@
       <c r="A74" s="116">
         <v>73</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="37" t="s">
         <v>1361</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="37" t="s">
         <v>646</v>
       </c>
       <c r="D74" s="110" t="s">
@@ -41194,11 +41201,11 @@
       <c r="A75" s="116">
         <v>74</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="37" t="s">
         <v>1362</v>
       </c>
-      <c r="C75" s="36" t="s">
-        <v>377</v>
+      <c r="C75" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D75" s="110" t="s">
         <v>1070</v>
@@ -41212,7 +41219,7 @@
       <c r="G75" s="115" t="s">
         <v>1365</v>
       </c>
-      <c r="H75" s="36" t="s">
+      <c r="H75" s="37" t="s">
         <v>1366</v>
       </c>
     </row>
@@ -41220,11 +41227,11 @@
       <c r="A76" s="116">
         <v>75</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="37" t="s">
         <v>1363</v>
       </c>
-      <c r="C76" s="36" t="s">
-        <v>377</v>
+      <c r="C76" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D76" s="110" t="s">
         <v>1070</v>
@@ -41234,11 +41241,11 @@
       <c r="A77" s="116">
         <v>76</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="37" t="s">
         <v>1364</v>
       </c>
-      <c r="C77" s="36" t="s">
-        <v>377</v>
+      <c r="C77" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D77" s="110" t="s">
         <v>1070</v>
@@ -41248,11 +41255,11 @@
       <c r="A78" s="116">
         <v>77</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="37" t="s">
         <v>1365</v>
       </c>
-      <c r="C78" s="36" t="s">
-        <v>377</v>
+      <c r="C78" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D78" s="110" t="s">
         <v>1070</v>
@@ -41262,10 +41269,10 @@
       <c r="A79" s="116">
         <v>78</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="37" t="s">
         <v>1366</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="37" t="s">
         <v>384</v>
       </c>
       <c r="D79" s="110" t="s">
@@ -41276,10 +41283,10 @@
       <c r="A80" s="116">
         <v>79</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="37" t="s">
         <v>1367</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="37" t="s">
         <v>426</v>
       </c>
       <c r="D80" s="110" t="s">
@@ -41299,10 +41306,10 @@
       <c r="A81" s="116">
         <v>80</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="37" t="s">
         <v>1368</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="37" t="s">
         <v>426</v>
       </c>
       <c r="D81" s="110" t="s">
@@ -41313,10 +41320,10 @@
       <c r="A82" s="116">
         <v>81</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="37" t="s">
         <v>1369</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="37" t="s">
         <v>426</v>
       </c>
       <c r="D82" s="110" t="s">
@@ -41327,10 +41334,10 @@
       <c r="A83" s="116">
         <v>82</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="37" t="s">
         <v>1370</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="37" t="s">
         <v>426</v>
       </c>
       <c r="D83" s="110" t="s">
@@ -41341,11 +41348,11 @@
       <c r="A84" s="116">
         <v>83</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="37" t="s">
         <v>1371</v>
       </c>
       <c r="C84" s="115" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="D84" s="110" t="s">
         <v>1070</v>
@@ -41367,11 +41374,11 @@
       <c r="A85" s="116">
         <v>84</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="37" t="s">
         <v>1372</v>
       </c>
       <c r="C85" s="115" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="D85" s="110" t="s">
         <v>1070</v>
@@ -41381,11 +41388,11 @@
       <c r="A86" s="116">
         <v>85</v>
       </c>
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="37" t="s">
         <v>1373</v>
       </c>
       <c r="C86" s="115" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="D86" s="110" t="s">
         <v>1070</v>
@@ -41395,11 +41402,11 @@
       <c r="A87" s="116">
         <v>86</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="37" t="s">
         <v>1374</v>
       </c>
       <c r="C87" s="115" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="D87" s="110" t="s">
         <v>1070</v>
@@ -41409,10 +41416,10 @@
       <c r="A88" s="116">
         <v>87</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="37" t="s">
         <v>1375</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="37" t="s">
         <v>385</v>
       </c>
       <c r="D88" s="110" t="s">
@@ -41423,10 +41430,10 @@
       <c r="A89" s="116">
         <v>88</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="37" t="s">
         <v>1376</v>
       </c>
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="37" t="s">
         <v>705</v>
       </c>
       <c r="D89" s="110" t="s">
@@ -41446,10 +41453,10 @@
       <c r="A90" s="116">
         <v>89</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="37" t="s">
         <v>1377</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="37" t="s">
         <v>705</v>
       </c>
       <c r="D90" s="110" t="s">
@@ -41460,10 +41467,10 @@
       <c r="A91" s="116">
         <v>90</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="37" t="s">
         <v>1378</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="37" t="s">
         <v>705</v>
       </c>
       <c r="D91" s="110" t="s">
@@ -41474,10 +41481,10 @@
       <c r="A92" s="116">
         <v>91</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="37" t="s">
         <v>1379</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="37" t="s">
         <v>705</v>
       </c>
       <c r="D92" s="110" t="s">
@@ -41488,11 +41495,11 @@
       <c r="A93" s="116">
         <v>92</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="37" t="s">
         <v>1372</v>
       </c>
-      <c r="C93" s="36" t="s">
-        <v>377</v>
+      <c r="C93" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D93" s="110" t="s">
         <v>1070</v>
@@ -41511,11 +41518,11 @@
       <c r="A94" s="116">
         <v>93</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="37" t="s">
         <v>1373</v>
       </c>
-      <c r="C94" s="36" t="s">
-        <v>377</v>
+      <c r="C94" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D94" s="110" t="s">
         <v>1070</v>
@@ -41525,11 +41532,11 @@
       <c r="A95" s="116">
         <v>94</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="37" t="s">
         <v>1374</v>
       </c>
-      <c r="C95" s="36" t="s">
-        <v>377</v>
+      <c r="C95" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D95" s="110" t="s">
         <v>1070</v>
@@ -41539,11 +41546,11 @@
       <c r="A96" s="116">
         <v>95</v>
       </c>
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="37" t="s">
         <v>1380</v>
       </c>
-      <c r="C96" s="36" t="s">
-        <v>377</v>
+      <c r="C96" s="37" t="s">
+        <v>316</v>
       </c>
       <c r="D96" s="110" t="s">
         <v>1070</v>
@@ -41553,10 +41560,10 @@
       <c r="A97" s="116">
         <v>96</v>
       </c>
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="37" t="s">
         <v>1381</v>
       </c>
-      <c r="C97" s="36" t="s">
+      <c r="C97" s="37" t="s">
         <v>386</v>
       </c>
       <c r="D97" s="110" t="s">
@@ -41576,10 +41583,10 @@
       <c r="A98" s="116">
         <v>97</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="37" t="s">
         <v>1382</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="37" t="s">
         <v>386</v>
       </c>
       <c r="D98" s="110" t="s">
@@ -41590,10 +41597,10 @@
       <c r="A99" s="116">
         <v>98</v>
       </c>
-      <c r="B99" s="36" t="s">
+      <c r="B99" s="37" t="s">
         <v>1383</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="37" t="s">
         <v>386</v>
       </c>
       <c r="D99" s="110" t="s">
@@ -41604,10 +41611,10 @@
       <c r="A100" s="116">
         <v>99</v>
       </c>
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="37" t="s">
         <v>1384</v>
       </c>
-      <c r="C100" s="36" t="s">
+      <c r="C100" s="37" t="s">
         <v>386</v>
       </c>
       <c r="D100" s="110" t="s">
@@ -41618,10 +41625,10 @@
       <c r="A101" s="116">
         <v>100</v>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="37" t="s">
         <v>1385</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="37" t="s">
         <v>708</v>
       </c>
       <c r="D101" s="110" t="s">
@@ -41641,10 +41648,10 @@
       <c r="A102" s="116">
         <v>101</v>
       </c>
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="37" t="s">
         <v>1386</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="37" t="s">
         <v>708</v>
       </c>
       <c r="D102" s="110" t="s">
@@ -41655,10 +41662,10 @@
       <c r="A103" s="116">
         <v>102</v>
       </c>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="37" t="s">
         <v>1387</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="37" t="s">
         <v>708</v>
       </c>
       <c r="D103" s="110" t="s">
@@ -41669,10 +41676,10 @@
       <c r="A104" s="116">
         <v>103</v>
       </c>
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="37" t="s">
         <v>1388</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="37" t="s">
         <v>708</v>
       </c>
       <c r="D104" s="110" t="s">
@@ -41687,7 +41694,7 @@
         <v>1389</v>
       </c>
       <c r="C105" s="115" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="D105" s="110" t="s">
         <v>1070</v>
@@ -41710,7 +41717,7 @@
         <v>1390</v>
       </c>
       <c r="C106" s="115" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="D106" s="110" t="s">
         <v>1070</v>
@@ -41724,7 +41731,7 @@
         <v>1391</v>
       </c>
       <c r="C107" s="115" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="D107" s="110" t="s">
         <v>1070</v>
@@ -41738,7 +41745,7 @@
         <v>1392</v>
       </c>
       <c r="C108" s="115" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="D108" s="110" t="s">
         <v>1070</v>
@@ -41748,10 +41755,10 @@
       <c r="A109" s="116">
         <v>108</v>
       </c>
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="37" t="s">
         <v>1393</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="37" t="s">
         <v>387</v>
       </c>
       <c r="D109" s="110" t="s">
@@ -41774,10 +41781,10 @@
       <c r="A110" s="116">
         <v>109</v>
       </c>
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="37" t="s">
         <v>1394</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="37" t="s">
         <v>387</v>
       </c>
       <c r="D110" s="110" t="s">
@@ -41788,10 +41795,10 @@
       <c r="A111" s="116">
         <v>110</v>
       </c>
-      <c r="B111" s="36" t="s">
+      <c r="B111" s="37" t="s">
         <v>1395</v>
       </c>
-      <c r="C111" s="36" t="s">
+      <c r="C111" s="37" t="s">
         <v>387</v>
       </c>
       <c r="D111" s="110" t="s">
@@ -41802,10 +41809,10 @@
       <c r="A112" s="116">
         <v>111</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="37" t="s">
         <v>1396</v>
       </c>
-      <c r="C112" s="36" t="s">
+      <c r="C112" s="37" t="s">
         <v>387</v>
       </c>
       <c r="D112" s="110" t="s">
@@ -41816,10 +41823,10 @@
       <c r="A113" s="116">
         <v>112</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="37" t="s">
         <v>1397</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="37" t="s">
         <v>387</v>
       </c>
       <c r="D113" s="110" t="s">
@@ -41830,10 +41837,10 @@
       <c r="A114" s="116">
         <v>113</v>
       </c>
-      <c r="B114" s="36" t="s">
+      <c r="B114" s="37" t="s">
         <v>1398</v>
       </c>
-      <c r="C114" s="36" t="s">
+      <c r="C114" s="37" t="s">
         <v>698</v>
       </c>
       <c r="D114" s="110" t="s">
@@ -41853,10 +41860,10 @@
       <c r="A115" s="116">
         <v>114</v>
       </c>
-      <c r="B115" s="36" t="s">
+      <c r="B115" s="37" t="s">
         <v>1399</v>
       </c>
-      <c r="C115" s="36" t="s">
+      <c r="C115" s="37" t="s">
         <v>698</v>
       </c>
       <c r="D115" s="110" t="s">
@@ -41867,10 +41874,10 @@
       <c r="A116" s="116">
         <v>115</v>
       </c>
-      <c r="B116" s="36" t="s">
+      <c r="B116" s="37" t="s">
         <v>1400</v>
       </c>
-      <c r="C116" s="36" t="s">
+      <c r="C116" s="37" t="s">
         <v>698</v>
       </c>
       <c r="D116" s="110" t="s">
@@ -41881,10 +41888,10 @@
       <c r="A117" s="116">
         <v>116</v>
       </c>
-      <c r="B117" s="36" t="s">
+      <c r="B117" s="37" t="s">
         <v>1401</v>
       </c>
-      <c r="C117" s="36" t="s">
+      <c r="C117" s="37" t="s">
         <v>698</v>
       </c>
       <c r="D117" s="110" t="s">
@@ -41895,7 +41902,7 @@
       <c r="A118" s="116">
         <v>117</v>
       </c>
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="37" t="s">
         <v>1402</v>
       </c>
       <c r="C118" s="115"/>
@@ -41919,7 +41926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41607c6a-e1fa-4ae8-a4f6-5a79af34dbe1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797853cd-2711-4292-b239-3fcec45aa29d}">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -41928,18 +41935,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="68.28571428571429" style="12" customWidth="1"/>
-    <col min="2" max="2" width="83.14285714285714" style="12" customWidth="1"/>
-    <col min="3" max="3" width="32" style="12" customWidth="1"/>
-    <col min="4" max="4" width="30.428571428571427" style="12" customWidth="1"/>
-    <col min="5" max="5" width="44.285714285714285" style="12" customWidth="1"/>
-    <col min="6" max="6" width="30.285714285714285" style="12" customWidth="1"/>
-    <col min="7" max="9" width="64.71428571428571" style="12" customWidth="1"/>
-    <col min="10" max="13" width="68.71428571428571" style="12" customWidth="1"/>
-    <col min="14" max="14" width="109" style="12" customWidth="1"/>
-    <col min="15" max="15" width="114" style="12" customWidth="1"/>
-    <col min="16" max="16" width="106.28571428571429" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="68.28571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="83.14285714285714" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="32.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="30.428571428571427" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="44.285714285714285" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="30.285714285714285" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="12" width="64.71428571428571" collapsed="true"/>
+    <col min="10" max="13" customWidth="true" style="12" width="68.71428571428571" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="12" width="109.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="12" width="114.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="12" width="106.28571428571429" collapsed="true"/>
+    <col min="17" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.05">
@@ -42325,7 +42332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25fb0f90-26de-4416-861d-e96f4c596db5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7a37ac17-8b3d-4331-a8eb-4dc2ecee9958}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -42334,7 +42341,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="16384" width="25.285714285714285" style="12"/>
+    <col min="1" max="16384" style="12" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="6.8500000000000005" bottom="6.8500000000000005" header="6.6531" footer="6.6531"/>
@@ -42343,7 +42350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4d5ec3bf-6d59-417f-81bf-4d96e3858b9d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{eb4d3db0-8982-4906-988b-2fc445dab44e}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -42352,7 +42359,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="16384" width="25.285714285714285" style="12"/>
+    <col min="1" max="16384" style="12" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="6.8500000000000005" bottom="6.8500000000000005" header="6.6531" footer="6.6531"/>
@@ -42361,30 +42368,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f2cb4df9-b57a-4a7d-b619-45737486f299}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1e7a7f4b-c154-46ad-9a37-8577e63509e7}">
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="M1">
-      <selection pane="topLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="topLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="65.57142857142857" style="12" customWidth="1"/>
-    <col min="2" max="2" width="84.57142857142857" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.571428571428571" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.857142857142858" style="12" customWidth="1"/>
-    <col min="5" max="5" width="75.28571428571429" style="12" customWidth="1"/>
-    <col min="6" max="6" width="59.714285714285715" style="12" customWidth="1"/>
-    <col min="7" max="7" width="94.71428571428571" style="12" customWidth="1"/>
-    <col min="8" max="8" width="28.714285714285715" style="12" customWidth="1"/>
-    <col min="9" max="10" width="90.42857142857143" style="12" customWidth="1"/>
-    <col min="11" max="11" width="71" style="12" customWidth="1"/>
-    <col min="12" max="12" width="117.57142857142857" style="12" customWidth="1"/>
-    <col min="13" max="13" width="134.14285714285714" style="12" customWidth="1"/>
-    <col min="14" max="14" width="34.285714285714285" style="12" customWidth="1"/>
-    <col min="15" max="21" width="25" style="12" customWidth="1"/>
-    <col min="22" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="65.57142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="84.57142857142857" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="12" width="12.5390625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="11.7578125" collapsed="true" bestFit="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="75.28571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="59.714285714285715" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="94.71428571428571" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="12" width="24.390625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="12" width="90.42857142857143" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="71.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="12" width="117.57142857142857" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="12" width="134.14285714285714" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="12" width="34.285714285714285" collapsed="true"/>
+    <col min="15" max="21" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="22" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.05">
@@ -42707,10 +42714,10 @@
         <v>206</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>207</v>
+        <v>1404</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>182</v>
@@ -42722,7 +42729,7 @@
         <v>184</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>208</v>
+        <v>1403</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>197</v>
@@ -42739,7 +42746,9 @@
       <c r="M7" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="N7" s="28"/>
+      <c r="N7" s="28" t="s">
+        <v>209</v>
+      </c>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
@@ -42753,10 +42762,10 @@
         <v>169</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>56</v>
@@ -42771,7 +42780,7 @@
         <v>192</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>197</v>
@@ -42789,7 +42798,7 @@
         <v>179</v>
       </c>
       <c r="N8" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
@@ -42804,7 +42813,7 @@
         <v>169</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -42847,7 +42856,7 @@
         <v>169</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -42890,7 +42899,7 @@
         <v>169</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -42933,7 +42942,7 @@
         <v>169</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -42995,32 +43004,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fc358e13-d9f9-4109-bd57-12ee73078fea}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276a380d-36ce-4c51-947b-dc74a6100309}">
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="O1">
-      <selection pane="topLeft" activeCell="P3" sqref="P3"/>
+      <selection pane="topLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="65.14285714285714" style="12" customWidth="1"/>
-    <col min="2" max="2" width="75.85714285714286" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.571428571428571" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.857142857142858" style="12" customWidth="1"/>
-    <col min="5" max="5" width="74.85714285714286" style="12" customWidth="1"/>
-    <col min="6" max="6" width="71.42857142857143" style="12" customWidth="1"/>
-    <col min="7" max="7" width="64.71428571428571" style="12" customWidth="1"/>
-    <col min="8" max="8" width="33.285714285714285" style="12" customWidth="1"/>
-    <col min="9" max="9" width="68.42857142857143" style="12" customWidth="1"/>
-    <col min="10" max="10" width="59.857142857142854" style="12" customWidth="1"/>
-    <col min="11" max="12" width="93.57142857142857" style="12" customWidth="1"/>
-    <col min="13" max="13" width="81.14285714285714" style="12" customWidth="1"/>
-    <col min="14" max="14" width="146.57142857142858" style="12" customWidth="1"/>
-    <col min="15" max="15" width="146.42857142857142" style="12" customWidth="1"/>
-    <col min="16" max="16" width="33.285714285714285" style="12" customWidth="1"/>
-    <col min="17" max="23" width="25" style="12" customWidth="1"/>
-    <col min="24" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="65.14285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="75.85714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="14.571428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="13.857142857142858" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="74.85714285714286" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="71.42857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="64.71428571428571" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="33.285714285714285" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="12" width="68.42857142857143" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="59.857142857142854" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="12" width="93.57142857142857" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="12" width="81.14285714285714" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="12" width="146.57142857142858" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="12" width="146.42857142857142" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="12" width="33.285714285714285" collapsed="true"/>
+    <col min="17" max="23" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="24" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.05">
@@ -43037,25 +43046,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>49</v>
@@ -43096,49 +43105,49 @@
     </row>
     <row r="2" spans="1:23" ht="14.05">
       <c r="A2" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H2" s="8">
         <v>12</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>177</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
@@ -43151,52 +43160,52 @@
     </row>
     <row r="3" spans="1:23" ht="14.05">
       <c r="A3" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>187</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H3" s="8">
         <v>2</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>177</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q3" s="31"/>
       <c r="R3" s="31"/>
@@ -43208,49 +43217,49 @@
     </row>
     <row r="4" spans="1:23" ht="14.05">
       <c r="A4" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H4" s="8">
         <v>12</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>177</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O4" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P4" s="31"/>
       <c r="Q4" s="31"/>
@@ -43263,49 +43272,49 @@
     </row>
     <row r="5" spans="1:23" ht="14.05">
       <c r="A5" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H5" s="8">
         <v>2</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>177</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P5" s="31"/>
       <c r="Q5" s="31"/>
@@ -43318,49 +43327,49 @@
     </row>
     <row r="6" spans="1:23" ht="14.05">
       <c r="A6" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H6" s="8">
         <v>12</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>177</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
@@ -43373,10 +43382,10 @@
     </row>
     <row r="7" spans="1:23" ht="14.05">
       <c r="A7" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>254</v>
@@ -43388,36 +43397,38 @@
         <v>255</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H7" s="8">
         <v>2</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>177</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="P7" s="31"/>
+        <v>236</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>256</v>
+      </c>
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
       <c r="S7" s="31"/>
@@ -43428,52 +43439,52 @@
     </row>
     <row r="8" spans="1:23" ht="14.05">
       <c r="A8" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H8" s="8">
         <v>12</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>177</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="31"/>
       <c r="R8" s="31"/>
@@ -43485,43 +43496,43 @@
     </row>
     <row r="9" spans="1:23" ht="14.05">
       <c r="A9" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H9" s="8">
         <v>2</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>177</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O9" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P9" s="31"/>
       <c r="Q9" s="31"/>
@@ -43534,43 +43545,43 @@
     </row>
     <row r="10" spans="1:23" ht="14.05">
       <c r="A10" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H10" s="8">
         <v>12</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>177</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
@@ -43583,43 +43594,43 @@
     </row>
     <row r="11" spans="1:23" ht="14.05">
       <c r="A11" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H11" s="8">
         <v>2</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>177</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P11" s="31"/>
       <c r="Q11" s="31"/>
@@ -43632,43 +43643,43 @@
     </row>
     <row r="12" spans="1:23" ht="14.05">
       <c r="A12" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H12" s="8">
         <v>12</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>177</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O12" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P12" s="31"/>
       <c r="Q12" s="31"/>
@@ -43703,36 +43714,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15c11e7f-6a60-40a7-a2ed-86e6dd3efacf}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849a8dfb-200e-4a3f-88f3-ebaa0e90c267}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0" topLeftCell="N1">
+      <selection pane="topLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.284285714285716" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="84.14285714285714" style="12" customWidth="1"/>
-    <col min="2" max="2" width="91" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.571428571428571" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.857142857142858" style="12" customWidth="1"/>
-    <col min="5" max="5" width="74.85714285714286" style="12" customWidth="1"/>
-    <col min="6" max="6" width="103" style="12" customWidth="1"/>
-    <col min="7" max="7" width="100.28571428571429" style="12" customWidth="1"/>
-    <col min="8" max="8" width="103.71428571428571" style="12" customWidth="1"/>
-    <col min="9" max="9" width="102.28571428571429" style="12" customWidth="1"/>
-    <col min="10" max="10" width="101.85714285714286" style="12" customWidth="1"/>
-    <col min="11" max="11" width="109.71428571428571" style="12" customWidth="1"/>
-    <col min="12" max="12" width="115" style="12" customWidth="1"/>
-    <col min="13" max="13" width="97" style="12" customWidth="1"/>
-    <col min="14" max="14" width="117.14285714285714" style="12" customWidth="1"/>
-    <col min="15" max="15" width="93.71428571428571" style="12" customWidth="1"/>
-    <col min="16" max="16" width="102.85714285714286" style="12" customWidth="1"/>
-    <col min="17" max="17" width="132.57142857142858" style="12" customWidth="1"/>
-    <col min="18" max="18" width="133" style="12" customWidth="1"/>
-    <col min="19" max="19" width="35.714285714285715" style="12" customWidth="1"/>
-    <col min="20" max="26" width="25" style="12" customWidth="1"/>
-    <col min="27" max="16384" width="25.285714285714285" style="14"/>
+    <col min="1" max="1" customWidth="true" style="12" width="84.14285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="12" width="91.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="14.571428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="13.857142857142858" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="12" width="74.85714285714286" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="12" width="103.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="100.28571428571429" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="103.71428571428571" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="12" width="102.28571428571429" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="12" width="101.85714285714286" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="109.71428571428571" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="12" width="115.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="12" width="97.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="12" width="117.14285714285714" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="12" width="93.71428571428571" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="12" width="102.85714285714286" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="12" width="132.57142857142858" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="12" width="133.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="12" width="35.714285714285715" collapsed="true"/>
+    <col min="20" max="26" customWidth="true" style="12" width="25.0" collapsed="true"/>
+    <col min="27" max="16384" style="14" width="25.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.05">
@@ -43749,34 +43760,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>49</v>
@@ -43817,58 +43828,58 @@
     </row>
     <row r="2" spans="1:26" ht="14.05">
       <c r="A2" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S2" s="31"/>
       <c r="T2" s="31"/>
@@ -43881,61 +43892,61 @@
     </row>
     <row r="3" spans="1:26" ht="14.05">
       <c r="A3" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T3" s="31"/>
       <c r="U3" s="31"/>
@@ -43947,58 +43958,58 @@
     </row>
     <row r="4" spans="1:26" ht="14.05">
       <c r="A4" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
@@ -44011,58 +44022,58 @@
     </row>
     <row r="5" spans="1:26" ht="14.05">
       <c r="A5" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S5" s="31"/>
       <c r="T5" s="31"/>
@@ -44075,58 +44086,58 @@
     </row>
     <row r="6" spans="1:26" ht="14.05">
       <c r="A6" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S6" s="31"/>
       <c r="T6" s="31"/>
@@ -44139,10 +44150,10 @@
     </row>
     <row r="7" spans="1:26" ht="14.05">
       <c r="A7" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>293</v>
@@ -44181,18 +44192,20 @@
         <v>294</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="S7" s="31"/>
+        <v>280</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>295</v>
+      </c>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
       <c r="V7" s="31"/>
@@ -44203,61 +44216,61 @@
     </row>
     <row r="8" spans="1:26" ht="14.05">
       <c r="A8" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S8" s="31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
@@ -44269,52 +44282,52 @@
     </row>
     <row r="9" spans="1:26" ht="14.05">
       <c r="A9" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R9" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S9" s="31"/>
       <c r="T9" s="31"/>
@@ -44327,52 +44340,52 @@
     </row>
     <row r="10" spans="1:26" ht="14.05">
       <c r="A10" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R10" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S10" s="31"/>
       <c r="T10" s="31"/>
@@ -44385,52 +44398,52 @@
     </row>
     <row r="11" spans="1:26" ht="14.05">
       <c r="A11" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R11" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S11" s="31"/>
       <c r="T11" s="31"/>
@@ -44443,52 +44456,52 @@
     </row>
     <row r="12" spans="1:26" ht="14.05">
       <c r="A12" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R12" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S12" s="31"/>
       <c r="T12" s="31"/>
